--- a/_document/Bug Collectios.xlsx
+++ b/_document/Bug Collectios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>1. Đưa group vào enable recommendation</t>
   </si>
@@ -51,35 +51,10 @@
     <t>1. Elggchat: Phải kích hoạt setting mới thấy friends online.</t>
   </si>
   <si>
-    <t>2. Advertising: Thiếu lang</t>
-  </si>
-  <si>
-    <t>3. Mutual friends: Mất widget.</t>
-  </si>
-  <si>
-    <t>4. Notebook: Check lại</t>
-  </si>
-  <si>
     <t>5. Notification:</t>
   </si>
   <si>
     <t>a. Không update notify by ajax.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">b. Comment on Blog entry: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>OK</t>
-    </r>
   </si>
   <si>
     <t>c. Wrong text display in notification</t>
@@ -102,15 +77,6 @@
   </si>
   <si>
     <t>a. User must be admin to receive notification</t>
-  </si>
-  <si>
-    <t>b. Notification của Hoaild (k phải là admin).</t>
-  </si>
-  <si>
-    <t>1. Friends Dialog: GET http://localhost/snorg/query.php?action=GetFriends&amp;owner=0  500 Internal Server Error</t>
-  </si>
-  <si>
-    <t>2. Profile: Lỗi khi edit profile.</t>
   </si>
   <si>
     <t>3. Stick: phải reenable mới tạo được category.</t>
@@ -219,6 +185,69 @@
   <si>
     <t>Owner</t>
   </si>
+  <si>
+    <t>Status_Hoai</t>
+  </si>
+  <si>
+    <t>Compelete:</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Hoai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Advertising: </t>
+  </si>
+  <si>
+    <t>Thiếu lang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LOGO hiển thị kích thước quá lớn</t>
+  </si>
+  <si>
+    <t>1. Friends Dialog: GET http://localhost/snorg/query.php?action=GetFriends&amp;owner=0  500 Internal Server Error</t>
+  </si>
+  <si>
+    <t>Kha</t>
+  </si>
+  <si>
+    <t>Photo không stick được tuy đã ở chế độ Public</t>
+  </si>
+  <si>
+    <t>2. Profile: Lỗi khi edit profile. - không save được</t>
+  </si>
+  <si>
+    <t>b. Comment on Blog entry: lỗi - user comment -&gt; các user đã comment bên trên không nhận được</t>
+  </si>
+  <si>
+    <t>b. Notification của Hoaild (k phải là admin). : do hệ thống xuất notify bị lỗi</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Group - không invite friend được - lỗi notify?( join vẫn notify okie)</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Không mở được cổ sổ chat trên IE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        không tắt được sesion trong IE</t>
+  </si>
+  <si>
+    <t>4. Notebook: Không save được</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
@@ -263,20 +292,59 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -287,13 +355,10 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -319,6 +384,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -333,20 +428,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4695824</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>3257550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1" descr="C:\Users\Huyvtq\AppData\Local\Temp\msohtmlclip1\01\clip_image001.png"/>
+        <xdr:cNvPr id="5" name="Picture 1" descr="C:\Users\Huyvtq\AppData\Local\Temp\msohtmlclip1\01\clip_image001.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -360,8 +455,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="381000"/>
-          <a:ext cx="4695824" cy="2200275"/>
+          <a:off x="361950" y="5695950"/>
+          <a:ext cx="3505200" cy="1649912"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -375,18 +470,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2295525</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2" descr="C:\Users\Huyvtq\AppData\Local\Temp\msohtmlclip1\01\clip_image002.png"/>
+        <xdr:cNvPr id="6" name="Picture 2" descr="C:\Users\Huyvtq\AppData\Local\Temp\msohtmlclip1\01\clip_image002.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -400,7 +495,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="6096000"/>
+          <a:off x="609600" y="9144000"/>
           <a:ext cx="2295525" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -415,18 +510,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2228850</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3" descr="C:\Users\Huyvtq\AppData\Local\Temp\msohtmlclip1\01\clip_image003.png"/>
+        <xdr:cNvPr id="7" name="Picture 3" descr="C:\Users\Huyvtq\AppData\Local\Temp\msohtmlclip1\01\clip_image003.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -440,7 +535,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="9334500"/>
+          <a:off x="609600" y="3238500"/>
           <a:ext cx="2228850" cy="2057400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -739,18 +834,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:BQ96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="77" customWidth="1"/>
+    <col min="2" max="2" width="86.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:69">
       <c r="A1">
         <v>1</v>
       </c>
@@ -758,324 +856,5574 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:69">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="12"/>
+      <c r="BN4" s="12"/>
+      <c r="BO4" s="12"/>
+      <c r="BP4" s="12"/>
+      <c r="BQ4" s="12"/>
+    </row>
+    <row r="5" spans="1:69">
+      <c r="A5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="12"/>
+      <c r="BN5" s="12"/>
+      <c r="BO5" s="12"/>
+      <c r="BP5" s="12"/>
+      <c r="BQ5" s="12"/>
+    </row>
+    <row r="6" spans="1:69" s="12" customFormat="1">
+      <c r="A6" s="12">
+        <v>4.2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BN7" s="12"/>
+      <c r="BO7" s="12"/>
+      <c r="BP7" s="12"/>
+      <c r="BQ7" s="12"/>
+    </row>
+    <row r="8" spans="1:69">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12"/>
+      <c r="BN8" s="12"/>
+      <c r="BO8" s="12"/>
+      <c r="BP8" s="12"/>
+      <c r="BQ8" s="12"/>
+    </row>
+    <row r="9" spans="1:69" s="12" customFormat="1">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+      <c r="BH11" s="12"/>
+      <c r="BI11" s="12"/>
+      <c r="BJ11" s="12"/>
+      <c r="BK11" s="12"/>
+      <c r="BL11" s="12"/>
+      <c r="BM11" s="12"/>
+      <c r="BN11" s="12"/>
+      <c r="BO11" s="12"/>
+      <c r="BP11" s="12"/>
+      <c r="BQ11" s="12"/>
+    </row>
+    <row r="12" spans="1:69">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="12"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="12"/>
+      <c r="AW12" s="12"/>
+      <c r="AX12" s="12"/>
+      <c r="AY12" s="12"/>
+      <c r="AZ12" s="12"/>
+      <c r="BA12" s="12"/>
+      <c r="BB12" s="12"/>
+      <c r="BC12" s="12"/>
+      <c r="BD12" s="12"/>
+      <c r="BE12" s="12"/>
+      <c r="BF12" s="12"/>
+      <c r="BG12" s="12"/>
+      <c r="BH12" s="12"/>
+      <c r="BI12" s="12"/>
+      <c r="BJ12" s="12"/>
+      <c r="BK12" s="12"/>
+      <c r="BL12" s="12"/>
+      <c r="BM12" s="12"/>
+      <c r="BN12" s="12"/>
+      <c r="BO12" s="12"/>
+      <c r="BP12" s="12"/>
+      <c r="BQ12" s="12"/>
+    </row>
+    <row r="13" spans="1:69">
+      <c r="A13">
+        <v>9.1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="12"/>
+      <c r="BH13" s="12"/>
+      <c r="BI13" s="12"/>
+      <c r="BJ13" s="12"/>
+      <c r="BK13" s="12"/>
+      <c r="BL13" s="12"/>
+      <c r="BM13" s="12"/>
+      <c r="BN13" s="12"/>
+      <c r="BO13" s="12"/>
+      <c r="BP13" s="12"/>
+      <c r="BQ13" s="12"/>
+    </row>
+    <row r="14" spans="1:69">
+      <c r="A14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="12"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="12"/>
+      <c r="AW14" s="12"/>
+      <c r="AX14" s="12"/>
+      <c r="AY14" s="12"/>
+      <c r="AZ14" s="12"/>
+      <c r="BA14" s="12"/>
+      <c r="BB14" s="12"/>
+      <c r="BC14" s="12"/>
+      <c r="BD14" s="12"/>
+      <c r="BE14" s="12"/>
+      <c r="BF14" s="12"/>
+      <c r="BG14" s="12"/>
+      <c r="BH14" s="12"/>
+      <c r="BI14" s="12"/>
+      <c r="BJ14" s="12"/>
+      <c r="BK14" s="12"/>
+      <c r="BL14" s="12"/>
+      <c r="BM14" s="12"/>
+      <c r="BN14" s="12"/>
+      <c r="BO14" s="12"/>
+      <c r="BP14" s="12"/>
+      <c r="BQ14" s="12"/>
+    </row>
+    <row r="15" spans="1:69">
+      <c r="A15">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="12"/>
+      <c r="BH15" s="12"/>
+      <c r="BI15" s="12"/>
+      <c r="BJ15" s="12"/>
+      <c r="BK15" s="12"/>
+      <c r="BL15" s="12"/>
+      <c r="BM15" s="12"/>
+      <c r="BN15" s="12"/>
+      <c r="BO15" s="12"/>
+      <c r="BP15" s="12"/>
+      <c r="BQ15" s="12"/>
+    </row>
+    <row r="16" spans="1:69">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="12"/>
+      <c r="AW16" s="12"/>
+      <c r="AX16" s="12"/>
+      <c r="AY16" s="12"/>
+      <c r="AZ16" s="12"/>
+      <c r="BA16" s="12"/>
+      <c r="BB16" s="12"/>
+      <c r="BC16" s="12"/>
+      <c r="BD16" s="12"/>
+      <c r="BE16" s="12"/>
+      <c r="BF16" s="12"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="12"/>
+      <c r="BI16" s="12"/>
+      <c r="BJ16" s="12"/>
+      <c r="BK16" s="12"/>
+      <c r="BL16" s="12"/>
+      <c r="BM16" s="12"/>
+      <c r="BN16" s="12"/>
+      <c r="BO16" s="12"/>
+      <c r="BP16" s="12"/>
+      <c r="BQ16" s="12"/>
+    </row>
+    <row r="17" spans="1:69">
+      <c r="A17">
+        <v>10.1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
+    </row>
+    <row r="18" spans="1:69">
+      <c r="B18" s="2"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+      <c r="BH18" s="12"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="12"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="12"/>
+      <c r="BO18" s="12"/>
+      <c r="BP18" s="12"/>
+      <c r="BQ18" s="12"/>
+    </row>
+    <row r="19" spans="1:69">
+      <c r="B19" s="2"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+      <c r="BH19" s="12"/>
+      <c r="BI19" s="12"/>
+      <c r="BJ19" s="12"/>
+      <c r="BK19" s="12"/>
+      <c r="BL19" s="12"/>
+      <c r="BM19" s="12"/>
+      <c r="BN19" s="12"/>
+      <c r="BO19" s="12"/>
+      <c r="BP19" s="12"/>
+      <c r="BQ19" s="12"/>
+    </row>
+    <row r="20" spans="1:69">
+      <c r="B20" s="2"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
+      <c r="BH20" s="12"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="12"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="12"/>
+      <c r="BM20" s="12"/>
+      <c r="BN20" s="12"/>
+      <c r="BO20" s="12"/>
+      <c r="BP20" s="12"/>
+      <c r="BQ20" s="12"/>
+    </row>
+    <row r="21" spans="1:69">
+      <c r="B21" s="2"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="12"/>
+      <c r="BH21" s="12"/>
+      <c r="BI21" s="12"/>
+      <c r="BJ21" s="12"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="12"/>
+      <c r="BM21" s="12"/>
+      <c r="BN21" s="12"/>
+      <c r="BO21" s="12"/>
+      <c r="BP21" s="12"/>
+      <c r="BQ21" s="12"/>
+    </row>
+    <row r="22" spans="1:69">
+      <c r="B22" s="2"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
+      <c r="BC22" s="12"/>
+      <c r="BD22" s="12"/>
+      <c r="BE22" s="12"/>
+      <c r="BF22" s="12"/>
+      <c r="BG22" s="12"/>
+      <c r="BH22" s="12"/>
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="12"/>
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
+      <c r="BM22" s="12"/>
+      <c r="BN22" s="12"/>
+      <c r="BO22" s="12"/>
+      <c r="BP22" s="12"/>
+      <c r="BQ22" s="12"/>
+    </row>
+    <row r="23" spans="1:69">
+      <c r="A23">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+      <c r="BG23" s="12"/>
+      <c r="BH23" s="12"/>
+      <c r="BI23" s="12"/>
+      <c r="BJ23" s="12"/>
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12"/>
+      <c r="BM23" s="12"/>
+      <c r="BN23" s="12"/>
+      <c r="BO23" s="12"/>
+      <c r="BP23" s="12"/>
+      <c r="BQ23" s="12"/>
+    </row>
+    <row r="24" spans="1:69">
+      <c r="B24" s="2"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+      <c r="BC24" s="12"/>
+      <c r="BD24" s="12"/>
+      <c r="BE24" s="12"/>
+      <c r="BF24" s="12"/>
+      <c r="BG24" s="12"/>
+      <c r="BH24" s="12"/>
+      <c r="BI24" s="12"/>
+      <c r="BJ24" s="12"/>
+      <c r="BK24" s="12"/>
+      <c r="BL24" s="12"/>
+      <c r="BM24" s="12"/>
+      <c r="BN24" s="12"/>
+      <c r="BO24" s="12"/>
+      <c r="BP24" s="12"/>
+      <c r="BQ24" s="12"/>
+    </row>
+    <row r="25" spans="1:69">
+      <c r="B25" s="2"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+      <c r="BC25" s="12"/>
+      <c r="BD25" s="12"/>
+      <c r="BE25" s="12"/>
+      <c r="BF25" s="12"/>
+      <c r="BG25" s="12"/>
+      <c r="BH25" s="12"/>
+      <c r="BI25" s="12"/>
+      <c r="BJ25" s="12"/>
+      <c r="BK25" s="12"/>
+      <c r="BL25" s="12"/>
+      <c r="BM25" s="12"/>
+      <c r="BN25" s="12"/>
+      <c r="BO25" s="12"/>
+      <c r="BP25" s="12"/>
+      <c r="BQ25" s="12"/>
+    </row>
+    <row r="26" spans="1:69">
+      <c r="B26" s="2"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="12"/>
+      <c r="BC26" s="12"/>
+      <c r="BD26" s="12"/>
+      <c r="BE26" s="12"/>
+      <c r="BF26" s="12"/>
+      <c r="BG26" s="12"/>
+      <c r="BH26" s="12"/>
+      <c r="BI26" s="12"/>
+      <c r="BJ26" s="12"/>
+      <c r="BK26" s="12"/>
+      <c r="BL26" s="12"/>
+      <c r="BM26" s="12"/>
+      <c r="BN26" s="12"/>
+      <c r="BO26" s="12"/>
+      <c r="BP26" s="12"/>
+      <c r="BQ26" s="12"/>
+    </row>
+    <row r="27" spans="1:69">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+      <c r="AK27" s="12"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="12"/>
+      <c r="AN27" s="12"/>
+      <c r="AO27" s="12"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="12"/>
+      <c r="AR27" s="12"/>
+      <c r="AS27" s="12"/>
+      <c r="AT27" s="12"/>
+      <c r="AU27" s="12"/>
+      <c r="AV27" s="12"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="12"/>
+      <c r="BA27" s="12"/>
+      <c r="BB27" s="12"/>
+      <c r="BC27" s="12"/>
+      <c r="BD27" s="12"/>
+      <c r="BE27" s="12"/>
+      <c r="BF27" s="12"/>
+      <c r="BG27" s="12"/>
+      <c r="BH27" s="12"/>
+      <c r="BI27" s="12"/>
+      <c r="BJ27" s="12"/>
+      <c r="BK27" s="12"/>
+      <c r="BL27" s="12"/>
+      <c r="BM27" s="12"/>
+      <c r="BN27" s="12"/>
+      <c r="BO27" s="12"/>
+      <c r="BP27" s="12"/>
+      <c r="BQ27" s="12"/>
+    </row>
+    <row r="28" spans="1:69">
+      <c r="B28" s="9"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
+      <c r="BD28" s="12"/>
+      <c r="BE28" s="12"/>
+      <c r="BF28" s="12"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
+      <c r="BM28" s="12"/>
+      <c r="BN28" s="12"/>
+      <c r="BO28" s="12"/>
+      <c r="BP28" s="12"/>
+      <c r="BQ28" s="12"/>
+    </row>
+    <row r="29" spans="1:69">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="12"/>
+      <c r="BC29" s="12"/>
+      <c r="BD29" s="12"/>
+      <c r="BE29" s="12"/>
+      <c r="BF29" s="12"/>
+      <c r="BG29" s="12"/>
+      <c r="BH29" s="12"/>
+      <c r="BI29" s="12"/>
+      <c r="BJ29" s="12"/>
+      <c r="BK29" s="12"/>
+      <c r="BL29" s="12"/>
+      <c r="BM29" s="12"/>
+      <c r="BN29" s="12"/>
+      <c r="BO29" s="12"/>
+      <c r="BP29" s="12"/>
+      <c r="BQ29" s="12"/>
+    </row>
+    <row r="30" spans="1:69">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:69">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:69">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:69">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:69">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:69">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:69">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:69">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:69">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:69">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:69">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:69">
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:69">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="12"/>
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="12"/>
+      <c r="AY42" s="12"/>
+      <c r="AZ42" s="12"/>
+      <c r="BA42" s="12"/>
+      <c r="BB42" s="12"/>
+      <c r="BC42" s="12"/>
+      <c r="BD42" s="12"/>
+      <c r="BE42" s="12"/>
+      <c r="BF42" s="12"/>
+      <c r="BG42" s="12"/>
+      <c r="BH42" s="12"/>
+      <c r="BI42" s="12"/>
+      <c r="BJ42" s="12"/>
+      <c r="BK42" s="12"/>
+      <c r="BL42" s="12"/>
+      <c r="BM42" s="12"/>
+      <c r="BN42" s="12"/>
+      <c r="BO42" s="12"/>
+      <c r="BP42" s="12"/>
+      <c r="BQ42" s="12"/>
+    </row>
+    <row r="43" spans="1:69">
+      <c r="B43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="12"/>
+      <c r="AO43" s="12"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="12"/>
+      <c r="AS43" s="12"/>
+      <c r="AT43" s="12"/>
+      <c r="AU43" s="12"/>
+      <c r="AV43" s="12"/>
+      <c r="AW43" s="12"/>
+      <c r="AX43" s="12"/>
+      <c r="AY43" s="12"/>
+      <c r="AZ43" s="12"/>
+      <c r="BA43" s="12"/>
+      <c r="BB43" s="12"/>
+      <c r="BC43" s="12"/>
+      <c r="BD43" s="12"/>
+      <c r="BE43" s="12"/>
+      <c r="BF43" s="12"/>
+      <c r="BG43" s="12"/>
+      <c r="BH43" s="12"/>
+      <c r="BI43" s="12"/>
+      <c r="BJ43" s="12"/>
+      <c r="BK43" s="12"/>
+      <c r="BL43" s="12"/>
+      <c r="BM43" s="12"/>
+      <c r="BN43" s="12"/>
+      <c r="BO43" s="12"/>
+      <c r="BP43" s="12"/>
+      <c r="BQ43" s="12"/>
+    </row>
+    <row r="44" spans="1:69" s="14" customFormat="1">
+      <c r="A44"/>
+      <c r="B44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="12"/>
+      <c r="AO44" s="12"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="12"/>
+      <c r="AW44" s="12"/>
+      <c r="AX44" s="12"/>
+      <c r="AY44" s="12"/>
+      <c r="AZ44" s="12"/>
+      <c r="BA44" s="12"/>
+      <c r="BB44" s="12"/>
+      <c r="BC44" s="12"/>
+      <c r="BD44" s="12"/>
+      <c r="BE44" s="12"/>
+      <c r="BF44" s="12"/>
+      <c r="BG44" s="12"/>
+      <c r="BH44" s="12"/>
+      <c r="BI44" s="12"/>
+      <c r="BJ44" s="12"/>
+      <c r="BK44" s="12"/>
+      <c r="BL44" s="12"/>
+      <c r="BM44" s="12"/>
+      <c r="BN44" s="12"/>
+      <c r="BO44" s="12"/>
+      <c r="BP44" s="12"/>
+      <c r="BQ44" s="12"/>
+    </row>
+    <row r="45" spans="1:69">
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="12"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AS45" s="12"/>
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="12"/>
+      <c r="AW45" s="12"/>
+      <c r="AX45" s="12"/>
+      <c r="AY45" s="12"/>
+      <c r="AZ45" s="12"/>
+      <c r="BA45" s="12"/>
+      <c r="BB45" s="12"/>
+      <c r="BC45" s="12"/>
+      <c r="BD45" s="12"/>
+      <c r="BE45" s="12"/>
+      <c r="BF45" s="12"/>
+      <c r="BG45" s="12"/>
+      <c r="BH45" s="12"/>
+      <c r="BI45" s="12"/>
+      <c r="BJ45" s="12"/>
+      <c r="BK45" s="12"/>
+      <c r="BL45" s="12"/>
+      <c r="BM45" s="12"/>
+      <c r="BN45" s="12"/>
+      <c r="BO45" s="12"/>
+      <c r="BP45" s="12"/>
+      <c r="BQ45" s="12"/>
+    </row>
+    <row r="46" spans="1:69">
+      <c r="B46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="12"/>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="12"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="12"/>
+      <c r="AS46" s="12"/>
+      <c r="AT46" s="12"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="12"/>
+      <c r="AW46" s="12"/>
+      <c r="AX46" s="12"/>
+      <c r="AY46" s="12"/>
+      <c r="AZ46" s="12"/>
+      <c r="BA46" s="12"/>
+      <c r="BB46" s="12"/>
+      <c r="BC46" s="12"/>
+      <c r="BD46" s="12"/>
+      <c r="BE46" s="12"/>
+      <c r="BF46" s="12"/>
+      <c r="BG46" s="12"/>
+      <c r="BH46" s="12"/>
+      <c r="BI46" s="12"/>
+      <c r="BJ46" s="12"/>
+      <c r="BK46" s="12"/>
+      <c r="BL46" s="12"/>
+      <c r="BM46" s="12"/>
+      <c r="BN46" s="12"/>
+      <c r="BO46" s="12"/>
+      <c r="BP46" s="12"/>
+      <c r="BQ46" s="12"/>
+    </row>
+    <row r="47" spans="1:69">
+      <c r="B47" s="3"/>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12"/>
+      <c r="AF47" s="12"/>
+      <c r="AG47" s="12"/>
+      <c r="AH47" s="12"/>
+      <c r="AI47" s="12"/>
+      <c r="AJ47" s="12"/>
+      <c r="AK47" s="12"/>
+      <c r="AL47" s="12"/>
+      <c r="AM47" s="12"/>
+      <c r="AN47" s="12"/>
+      <c r="AO47" s="12"/>
+      <c r="AP47" s="12"/>
+      <c r="AQ47" s="12"/>
+      <c r="AR47" s="12"/>
+      <c r="AS47" s="12"/>
+      <c r="AT47" s="12"/>
+      <c r="AU47" s="12"/>
+      <c r="AV47" s="12"/>
+      <c r="AW47" s="12"/>
+      <c r="AX47" s="12"/>
+      <c r="AY47" s="12"/>
+      <c r="AZ47" s="12"/>
+      <c r="BA47" s="12"/>
+      <c r="BB47" s="12"/>
+      <c r="BC47" s="12"/>
+      <c r="BD47" s="12"/>
+      <c r="BE47" s="12"/>
+      <c r="BF47" s="12"/>
+      <c r="BG47" s="12"/>
+      <c r="BH47" s="12"/>
+      <c r="BI47" s="12"/>
+      <c r="BJ47" s="12"/>
+      <c r="BK47" s="12"/>
+      <c r="BL47" s="12"/>
+      <c r="BM47" s="12"/>
+      <c r="BN47" s="12"/>
+      <c r="BO47" s="12"/>
+      <c r="BP47" s="12"/>
+      <c r="BQ47" s="12"/>
+    </row>
+    <row r="48" spans="1:69">
+      <c r="B48" s="2"/>
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12"/>
+      <c r="AF48" s="12"/>
+      <c r="AG48" s="12"/>
+      <c r="AH48" s="12"/>
+      <c r="AI48" s="12"/>
+      <c r="AJ48" s="12"/>
+      <c r="AK48" s="12"/>
+      <c r="AL48" s="12"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="12"/>
+      <c r="AO48" s="12"/>
+      <c r="AP48" s="12"/>
+      <c r="AQ48" s="12"/>
+      <c r="AR48" s="12"/>
+      <c r="AS48" s="12"/>
+      <c r="AT48" s="12"/>
+      <c r="AU48" s="12"/>
+      <c r="AV48" s="12"/>
+      <c r="AW48" s="12"/>
+      <c r="AX48" s="12"/>
+      <c r="AY48" s="12"/>
+      <c r="AZ48" s="12"/>
+      <c r="BA48" s="12"/>
+      <c r="BB48" s="12"/>
+      <c r="BC48" s="12"/>
+      <c r="BD48" s="12"/>
+      <c r="BE48" s="12"/>
+      <c r="BF48" s="12"/>
+      <c r="BG48" s="12"/>
+      <c r="BH48" s="12"/>
+      <c r="BI48" s="12"/>
+      <c r="BJ48" s="12"/>
+      <c r="BK48" s="12"/>
+      <c r="BL48" s="12"/>
+      <c r="BM48" s="12"/>
+      <c r="BN48" s="12"/>
+      <c r="BO48" s="12"/>
+      <c r="BP48" s="12"/>
+      <c r="BQ48" s="12"/>
+    </row>
+    <row r="49" spans="1:69">
+      <c r="B49" s="2"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="12"/>
+      <c r="AN49" s="12"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="12"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="12"/>
+      <c r="AS49" s="12"/>
+      <c r="AT49" s="12"/>
+      <c r="AU49" s="12"/>
+      <c r="AV49" s="12"/>
+      <c r="AW49" s="12"/>
+      <c r="AX49" s="12"/>
+      <c r="AY49" s="12"/>
+      <c r="AZ49" s="12"/>
+      <c r="BA49" s="12"/>
+      <c r="BB49" s="12"/>
+      <c r="BC49" s="12"/>
+      <c r="BD49" s="12"/>
+      <c r="BE49" s="12"/>
+      <c r="BF49" s="12"/>
+      <c r="BG49" s="12"/>
+      <c r="BH49" s="12"/>
+      <c r="BI49" s="12"/>
+      <c r="BJ49" s="12"/>
+      <c r="BK49" s="12"/>
+      <c r="BL49" s="12"/>
+      <c r="BM49" s="12"/>
+      <c r="BN49" s="12"/>
+      <c r="BO49" s="12"/>
+      <c r="BP49" s="12"/>
+      <c r="BQ49" s="12"/>
+    </row>
+    <row r="50" spans="1:69">
+      <c r="B50" s="2"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="12"/>
+      <c r="AN50" s="12"/>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="12"/>
+      <c r="AW50" s="12"/>
+      <c r="AX50" s="12"/>
+      <c r="AY50" s="12"/>
+      <c r="AZ50" s="12"/>
+      <c r="BA50" s="12"/>
+      <c r="BB50" s="12"/>
+      <c r="BC50" s="12"/>
+      <c r="BD50" s="12"/>
+      <c r="BE50" s="12"/>
+      <c r="BF50" s="12"/>
+      <c r="BG50" s="12"/>
+      <c r="BH50" s="12"/>
+      <c r="BI50" s="12"/>
+      <c r="BJ50" s="12"/>
+      <c r="BK50" s="12"/>
+      <c r="BL50" s="12"/>
+      <c r="BM50" s="12"/>
+      <c r="BN50" s="12"/>
+      <c r="BO50" s="12"/>
+      <c r="BP50" s="12"/>
+      <c r="BQ50" s="12"/>
+    </row>
+    <row r="51" spans="1:69">
+      <c r="B51" s="2"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="12"/>
+      <c r="AC51" s="12"/>
+      <c r="AD51" s="12"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="12"/>
+      <c r="AN51" s="12"/>
+      <c r="AO51" s="12"/>
+      <c r="AP51" s="12"/>
+      <c r="AQ51" s="12"/>
+      <c r="AR51" s="12"/>
+      <c r="AS51" s="12"/>
+      <c r="AT51" s="12"/>
+      <c r="AU51" s="12"/>
+      <c r="AV51" s="12"/>
+      <c r="AW51" s="12"/>
+      <c r="AX51" s="12"/>
+      <c r="AY51" s="12"/>
+      <c r="AZ51" s="12"/>
+      <c r="BA51" s="12"/>
+      <c r="BB51" s="12"/>
+      <c r="BC51" s="12"/>
+      <c r="BD51" s="12"/>
+      <c r="BE51" s="12"/>
+      <c r="BF51" s="12"/>
+      <c r="BG51" s="12"/>
+      <c r="BH51" s="12"/>
+      <c r="BI51" s="12"/>
+      <c r="BJ51" s="12"/>
+      <c r="BK51" s="12"/>
+      <c r="BL51" s="12"/>
+      <c r="BM51" s="12"/>
+      <c r="BN51" s="12"/>
+      <c r="BO51" s="12"/>
+      <c r="BP51" s="12"/>
+      <c r="BQ51" s="12"/>
+    </row>
+    <row r="52" spans="1:69">
+      <c r="B52" s="2"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="12"/>
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="12"/>
+      <c r="AC52" s="12"/>
+      <c r="AD52" s="12"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="12"/>
+      <c r="AN52" s="12"/>
+      <c r="AO52" s="12"/>
+      <c r="AP52" s="12"/>
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="12"/>
+      <c r="AS52" s="12"/>
+      <c r="AT52" s="12"/>
+      <c r="AU52" s="12"/>
+      <c r="AV52" s="12"/>
+      <c r="AW52" s="12"/>
+      <c r="AX52" s="12"/>
+      <c r="AY52" s="12"/>
+      <c r="AZ52" s="12"/>
+      <c r="BA52" s="12"/>
+      <c r="BB52" s="12"/>
+      <c r="BC52" s="12"/>
+      <c r="BD52" s="12"/>
+      <c r="BE52" s="12"/>
+      <c r="BF52" s="12"/>
+      <c r="BG52" s="12"/>
+      <c r="BH52" s="12"/>
+      <c r="BI52" s="12"/>
+      <c r="BJ52" s="12"/>
+      <c r="BK52" s="12"/>
+      <c r="BL52" s="12"/>
+      <c r="BM52" s="12"/>
+      <c r="BN52" s="12"/>
+      <c r="BO52" s="12"/>
+      <c r="BP52" s="12"/>
+      <c r="BQ52" s="12"/>
+    </row>
+    <row r="53" spans="1:69">
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12"/>
+      <c r="AT53" s="12"/>
+      <c r="AU53" s="12"/>
+      <c r="AV53" s="12"/>
+      <c r="AW53" s="12"/>
+      <c r="AX53" s="12"/>
+      <c r="AY53" s="12"/>
+      <c r="AZ53" s="12"/>
+      <c r="BA53" s="12"/>
+      <c r="BB53" s="12"/>
+      <c r="BC53" s="12"/>
+      <c r="BD53" s="12"/>
+      <c r="BE53" s="12"/>
+      <c r="BF53" s="12"/>
+      <c r="BG53" s="12"/>
+      <c r="BH53" s="12"/>
+      <c r="BI53" s="12"/>
+      <c r="BJ53" s="12"/>
+      <c r="BK53" s="12"/>
+      <c r="BL53" s="12"/>
+      <c r="BM53" s="12"/>
+      <c r="BN53" s="12"/>
+      <c r="BO53" s="12"/>
+      <c r="BP53" s="12"/>
+      <c r="BQ53" s="12"/>
+    </row>
+    <row r="54" spans="1:69">
+      <c r="B54" s="5"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="12"/>
+      <c r="AW54" s="12"/>
+      <c r="AX54" s="12"/>
+      <c r="AY54" s="12"/>
+      <c r="AZ54" s="12"/>
+      <c r="BA54" s="12"/>
+      <c r="BB54" s="12"/>
+      <c r="BC54" s="12"/>
+      <c r="BD54" s="12"/>
+      <c r="BE54" s="12"/>
+      <c r="BF54" s="12"/>
+      <c r="BG54" s="12"/>
+      <c r="BH54" s="12"/>
+      <c r="BI54" s="12"/>
+      <c r="BJ54" s="12"/>
+      <c r="BK54" s="12"/>
+      <c r="BL54" s="12"/>
+      <c r="BM54" s="12"/>
+      <c r="BN54" s="12"/>
+      <c r="BO54" s="12"/>
+      <c r="BP54" s="12"/>
+      <c r="BQ54" s="12"/>
+    </row>
+    <row r="55" spans="1:69">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12"/>
+      <c r="AT55" s="12"/>
+      <c r="AU55" s="12"/>
+      <c r="AV55" s="12"/>
+      <c r="AW55" s="12"/>
+      <c r="AX55" s="12"/>
+      <c r="AY55" s="12"/>
+      <c r="AZ55" s="12"/>
+      <c r="BA55" s="12"/>
+      <c r="BB55" s="12"/>
+      <c r="BC55" s="12"/>
+      <c r="BD55" s="12"/>
+      <c r="BE55" s="12"/>
+      <c r="BF55" s="12"/>
+      <c r="BG55" s="12"/>
+      <c r="BH55" s="12"/>
+      <c r="BI55" s="12"/>
+      <c r="BJ55" s="12"/>
+      <c r="BK55" s="12"/>
+      <c r="BL55" s="12"/>
+      <c r="BM55" s="12"/>
+      <c r="BN55" s="12"/>
+      <c r="BO55" s="12"/>
+      <c r="BP55" s="12"/>
+      <c r="BQ55" s="12"/>
+    </row>
+    <row r="56" spans="1:69">
+      <c r="A56">
+        <v>14.1</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="12"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12"/>
+      <c r="AN56" s="12"/>
+      <c r="AO56" s="12"/>
+      <c r="AP56" s="12"/>
+      <c r="AQ56" s="12"/>
+      <c r="AR56" s="12"/>
+      <c r="AS56" s="12"/>
+      <c r="AT56" s="12"/>
+      <c r="AU56" s="12"/>
+      <c r="AV56" s="12"/>
+      <c r="AW56" s="12"/>
+      <c r="AX56" s="12"/>
+      <c r="AY56" s="12"/>
+      <c r="AZ56" s="12"/>
+      <c r="BA56" s="12"/>
+      <c r="BB56" s="12"/>
+      <c r="BC56" s="12"/>
+      <c r="BD56" s="12"/>
+      <c r="BE56" s="12"/>
+      <c r="BF56" s="12"/>
+      <c r="BG56" s="12"/>
+      <c r="BH56" s="12"/>
+      <c r="BI56" s="12"/>
+      <c r="BJ56" s="12"/>
+      <c r="BK56" s="12"/>
+      <c r="BL56" s="12"/>
+      <c r="BM56" s="12"/>
+      <c r="BN56" s="12"/>
+      <c r="BO56" s="12"/>
+      <c r="BP56" s="12"/>
+      <c r="BQ56" s="12"/>
+    </row>
+    <row r="57" spans="1:69">
+      <c r="A57" s="12">
+        <v>14.2</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="12"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="12"/>
+      <c r="AO57" s="12"/>
+      <c r="AP57" s="12"/>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="12"/>
+      <c r="AS57" s="12"/>
+      <c r="AT57" s="12"/>
+      <c r="AU57" s="12"/>
+      <c r="AV57" s="12"/>
+      <c r="AW57" s="12"/>
+      <c r="AX57" s="12"/>
+      <c r="AY57" s="12"/>
+      <c r="AZ57" s="12"/>
+      <c r="BA57" s="12"/>
+      <c r="BB57" s="12"/>
+      <c r="BC57" s="12"/>
+      <c r="BD57" s="12"/>
+      <c r="BE57" s="12"/>
+      <c r="BF57" s="12"/>
+      <c r="BG57" s="12"/>
+      <c r="BH57" s="12"/>
+      <c r="BI57" s="12"/>
+      <c r="BJ57" s="12"/>
+      <c r="BK57" s="12"/>
+      <c r="BL57" s="12"/>
+      <c r="BM57" s="12"/>
+      <c r="BN57" s="12"/>
+      <c r="BO57" s="12"/>
+      <c r="BP57" s="12"/>
+      <c r="BQ57" s="12"/>
+    </row>
+    <row r="58" spans="1:69">
+      <c r="A58" s="14">
+        <v>15</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="12"/>
+      <c r="AH58" s="12"/>
+      <c r="AI58" s="12"/>
+      <c r="AJ58" s="12"/>
+      <c r="AK58" s="12"/>
+      <c r="AL58" s="12"/>
+      <c r="AM58" s="12"/>
+      <c r="AN58" s="12"/>
+      <c r="AO58" s="12"/>
+      <c r="AP58" s="12"/>
+      <c r="AQ58" s="12"/>
+      <c r="AR58" s="12"/>
+      <c r="AS58" s="12"/>
+      <c r="AT58" s="12"/>
+      <c r="AU58" s="12"/>
+      <c r="AV58" s="12"/>
+      <c r="AW58" s="12"/>
+      <c r="AX58" s="12"/>
+      <c r="AY58" s="12"/>
+      <c r="AZ58" s="12"/>
+      <c r="BA58" s="12"/>
+      <c r="BB58" s="12"/>
+      <c r="BC58" s="12"/>
+      <c r="BD58" s="12"/>
+      <c r="BE58" s="12"/>
+      <c r="BF58" s="12"/>
+      <c r="BG58" s="12"/>
+      <c r="BH58" s="12"/>
+      <c r="BI58" s="12"/>
+      <c r="BJ58" s="12"/>
+      <c r="BK58" s="12"/>
+      <c r="BL58" s="12"/>
+      <c r="BM58" s="12"/>
+      <c r="BN58" s="12"/>
+      <c r="BO58" s="12"/>
+      <c r="BP58" s="12"/>
+      <c r="BQ58" s="12"/>
+    </row>
+    <row r="59" spans="1:69" s="12" customFormat="1">
+      <c r="A59" s="12">
+        <v>16</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="B21" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="D59" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:69" s="14" customFormat="1">
+      <c r="A60">
+        <v>17</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>9</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="4" t="s">
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="12"/>
+      <c r="AK60" s="12"/>
+      <c r="AL60" s="12"/>
+      <c r="AM60" s="12"/>
+      <c r="AN60" s="12"/>
+      <c r="AO60" s="12"/>
+      <c r="AP60" s="12"/>
+      <c r="AQ60" s="12"/>
+      <c r="AR60" s="12"/>
+      <c r="AS60" s="12"/>
+      <c r="AT60" s="12"/>
+      <c r="AU60" s="12"/>
+      <c r="AV60" s="12"/>
+      <c r="AW60" s="12"/>
+      <c r="AX60" s="12"/>
+      <c r="AY60" s="12"/>
+      <c r="AZ60" s="12"/>
+      <c r="BA60" s="12"/>
+      <c r="BB60" s="12"/>
+      <c r="BC60" s="12"/>
+      <c r="BD60" s="12"/>
+      <c r="BE60" s="12"/>
+      <c r="BF60" s="12"/>
+      <c r="BG60" s="12"/>
+      <c r="BH60" s="12"/>
+      <c r="BI60" s="12"/>
+      <c r="BJ60" s="12"/>
+      <c r="BK60" s="12"/>
+      <c r="BL60" s="12"/>
+      <c r="BM60" s="12"/>
+      <c r="BN60" s="12"/>
+      <c r="BO60" s="12"/>
+      <c r="BP60" s="12"/>
+      <c r="BQ60" s="12"/>
+    </row>
+    <row r="61" spans="1:69" s="18" customFormat="1">
+      <c r="A61" s="14">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="12"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+      <c r="AM61" s="12"/>
+      <c r="AN61" s="12"/>
+      <c r="AO61" s="12"/>
+      <c r="AP61" s="12"/>
+      <c r="AQ61" s="12"/>
+      <c r="AR61" s="12"/>
+      <c r="AS61" s="12"/>
+      <c r="AT61" s="12"/>
+      <c r="AU61" s="12"/>
+      <c r="AV61" s="12"/>
+      <c r="AW61" s="12"/>
+      <c r="AX61" s="12"/>
+      <c r="AY61" s="12"/>
+      <c r="AZ61" s="12"/>
+      <c r="BA61" s="12"/>
+      <c r="BB61" s="12"/>
+      <c r="BC61" s="12"/>
+      <c r="BD61" s="12"/>
+      <c r="BE61" s="12"/>
+      <c r="BF61" s="12"/>
+      <c r="BG61" s="12"/>
+      <c r="BH61" s="12"/>
+      <c r="BI61" s="12"/>
+      <c r="BJ61" s="12"/>
+      <c r="BK61" s="12"/>
+      <c r="BL61" s="12"/>
+      <c r="BM61" s="12"/>
+      <c r="BN61" s="12"/>
+      <c r="BO61" s="12"/>
+      <c r="BP61" s="12"/>
+      <c r="BQ61" s="12"/>
+    </row>
+    <row r="62" spans="1:69">
+      <c r="A62" s="14">
+        <v>17.2</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="12"/>
+      <c r="AO62" s="12"/>
+      <c r="AP62" s="12"/>
+      <c r="AQ62" s="12"/>
+      <c r="AR62" s="12"/>
+      <c r="AS62" s="12"/>
+      <c r="AT62" s="12"/>
+      <c r="AU62" s="12"/>
+      <c r="AV62" s="12"/>
+      <c r="AW62" s="12"/>
+      <c r="AX62" s="12"/>
+      <c r="AY62" s="12"/>
+      <c r="AZ62" s="12"/>
+      <c r="BA62" s="12"/>
+      <c r="BB62" s="12"/>
+      <c r="BC62" s="12"/>
+      <c r="BD62" s="12"/>
+      <c r="BE62" s="12"/>
+      <c r="BF62" s="12"/>
+      <c r="BG62" s="12"/>
+      <c r="BH62" s="12"/>
+      <c r="BI62" s="12"/>
+      <c r="BJ62" s="12"/>
+      <c r="BK62" s="12"/>
+      <c r="BL62" s="12"/>
+      <c r="BM62" s="12"/>
+      <c r="BN62" s="12"/>
+      <c r="BO62" s="12"/>
+      <c r="BP62" s="12"/>
+      <c r="BQ62" s="12"/>
+    </row>
+    <row r="63" spans="1:69" s="14" customFormat="1">
+      <c r="A63" s="20">
+        <v>18</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
+      <c r="AN63" s="12"/>
+      <c r="AO63" s="12"/>
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12"/>
+      <c r="AS63" s="12"/>
+      <c r="AT63" s="12"/>
+      <c r="AU63" s="12"/>
+      <c r="AV63" s="12"/>
+      <c r="AW63" s="12"/>
+      <c r="AX63" s="12"/>
+      <c r="AY63" s="12"/>
+      <c r="AZ63" s="12"/>
+      <c r="BA63" s="12"/>
+      <c r="BB63" s="12"/>
+      <c r="BC63" s="12"/>
+      <c r="BD63" s="12"/>
+      <c r="BE63" s="12"/>
+      <c r="BF63" s="12"/>
+      <c r="BG63" s="12"/>
+      <c r="BH63" s="12"/>
+      <c r="BI63" s="12"/>
+      <c r="BJ63" s="12"/>
+      <c r="BK63" s="12"/>
+      <c r="BL63" s="12"/>
+      <c r="BM63" s="12"/>
+      <c r="BN63" s="12"/>
+      <c r="BO63" s="12"/>
+      <c r="BP63" s="12"/>
+      <c r="BQ63" s="12"/>
+    </row>
+    <row r="64" spans="1:69" s="14" customFormat="1">
+      <c r="A64">
+        <v>19</v>
+      </c>
+      <c r="B64" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="B38" s="3"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>13</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>14</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>15</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="12"/>
+      <c r="AN64" s="12"/>
+      <c r="AO64" s="12"/>
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="12"/>
+      <c r="AR64" s="12"/>
+      <c r="AS64" s="12"/>
+      <c r="AT64" s="12"/>
+      <c r="AU64" s="12"/>
+      <c r="AV64" s="12"/>
+      <c r="AW64" s="12"/>
+      <c r="AX64" s="12"/>
+      <c r="AY64" s="12"/>
+      <c r="AZ64" s="12"/>
+      <c r="BA64" s="12"/>
+      <c r="BB64" s="12"/>
+      <c r="BC64" s="12"/>
+      <c r="BD64" s="12"/>
+      <c r="BE64" s="12"/>
+      <c r="BF64" s="12"/>
+      <c r="BG64" s="12"/>
+      <c r="BH64" s="12"/>
+      <c r="BI64" s="12"/>
+      <c r="BJ64" s="12"/>
+      <c r="BK64" s="12"/>
+      <c r="BL64" s="12"/>
+      <c r="BM64" s="12"/>
+      <c r="BN64" s="12"/>
+      <c r="BO64" s="12"/>
+      <c r="BP64" s="12"/>
+      <c r="BQ64" s="12"/>
+    </row>
+    <row r="65" spans="1:69" s="20" customFormat="1">
+      <c r="A65" s="23"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="22"/>
+      <c r="R65" s="22"/>
+      <c r="S65" s="22"/>
+      <c r="T65" s="22"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="22"/>
+      <c r="AD65" s="22"/>
+      <c r="AE65" s="22"/>
+      <c r="AF65" s="22"/>
+      <c r="AG65" s="22"/>
+      <c r="AH65" s="22"/>
+      <c r="AI65" s="22"/>
+      <c r="AJ65" s="22"/>
+      <c r="AK65" s="22"/>
+      <c r="AL65" s="22"/>
+      <c r="AM65" s="22"/>
+      <c r="AN65" s="22"/>
+      <c r="AO65" s="22"/>
+      <c r="AP65" s="22"/>
+      <c r="AQ65" s="22"/>
+      <c r="AR65" s="22"/>
+      <c r="AS65" s="22"/>
+      <c r="AT65" s="22"/>
+      <c r="AU65" s="22"/>
+      <c r="AV65" s="22"/>
+      <c r="AW65" s="22"/>
+      <c r="AX65" s="22"/>
+      <c r="AY65" s="22"/>
+      <c r="AZ65" s="22"/>
+      <c r="BA65" s="22"/>
+      <c r="BB65" s="22"/>
+      <c r="BC65" s="22"/>
+      <c r="BD65" s="22"/>
+      <c r="BE65" s="22"/>
+      <c r="BF65" s="22"/>
+      <c r="BG65" s="22"/>
+      <c r="BH65" s="22"/>
+      <c r="BI65" s="22"/>
+      <c r="BJ65" s="22"/>
+      <c r="BK65" s="22"/>
+      <c r="BL65" s="22"/>
+      <c r="BM65" s="22"/>
+      <c r="BN65" s="22"/>
+      <c r="BO65" s="22"/>
+      <c r="BP65" s="22"/>
+      <c r="BQ65" s="22"/>
+    </row>
+    <row r="66" spans="1:69">
+      <c r="B66" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>16</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="12"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+      <c r="AM66" s="12"/>
+      <c r="AN66" s="12"/>
+      <c r="AO66" s="12"/>
+      <c r="AP66" s="12"/>
+      <c r="AQ66" s="12"/>
+      <c r="AR66" s="12"/>
+      <c r="AS66" s="12"/>
+      <c r="AT66" s="12"/>
+      <c r="AU66" s="12"/>
+      <c r="AV66" s="12"/>
+      <c r="AW66" s="12"/>
+      <c r="AX66" s="12"/>
+      <c r="AY66" s="12"/>
+      <c r="AZ66" s="12"/>
+      <c r="BA66" s="12"/>
+      <c r="BB66" s="12"/>
+      <c r="BC66" s="12"/>
+      <c r="BD66" s="12"/>
+      <c r="BE66" s="12"/>
+      <c r="BF66" s="12"/>
+      <c r="BG66" s="12"/>
+      <c r="BH66" s="12"/>
+      <c r="BI66" s="12"/>
+      <c r="BJ66" s="12"/>
+      <c r="BK66" s="12"/>
+      <c r="BL66" s="12"/>
+      <c r="BM66" s="12"/>
+      <c r="BN66" s="12"/>
+      <c r="BO66" s="12"/>
+      <c r="BP66" s="12"/>
+      <c r="BQ66" s="12"/>
+    </row>
+    <row r="67" spans="1:69" s="23" customFormat="1">
+      <c r="A67"/>
+      <c r="B67" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>17</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="25"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="25"/>
+      <c r="AB67" s="25"/>
+      <c r="AC67" s="25"/>
+      <c r="AD67" s="25"/>
+      <c r="AE67" s="25"/>
+      <c r="AF67" s="25"/>
+      <c r="AG67" s="25"/>
+      <c r="AH67" s="25"/>
+      <c r="AI67" s="25"/>
+      <c r="AJ67" s="25"/>
+      <c r="AK67" s="25"/>
+      <c r="AL67" s="25"/>
+      <c r="AM67" s="25"/>
+      <c r="AN67" s="25"/>
+      <c r="AO67" s="25"/>
+      <c r="AP67" s="25"/>
+      <c r="AQ67" s="25"/>
+      <c r="AR67" s="25"/>
+      <c r="AS67" s="25"/>
+      <c r="AT67" s="25"/>
+      <c r="AU67" s="25"/>
+      <c r="AV67" s="25"/>
+      <c r="AW67" s="25"/>
+      <c r="AX67" s="25"/>
+      <c r="AY67" s="25"/>
+      <c r="AZ67" s="25"/>
+      <c r="BA67" s="25"/>
+      <c r="BB67" s="25"/>
+      <c r="BC67" s="25"/>
+      <c r="BD67" s="25"/>
+      <c r="BE67" s="25"/>
+      <c r="BF67" s="25"/>
+      <c r="BG67" s="25"/>
+      <c r="BH67" s="25"/>
+      <c r="BI67" s="25"/>
+      <c r="BJ67" s="25"/>
+      <c r="BK67" s="25"/>
+      <c r="BL67" s="25"/>
+      <c r="BM67" s="25"/>
+      <c r="BN67" s="25"/>
+      <c r="BO67" s="25"/>
+      <c r="BP67" s="25"/>
+      <c r="BQ67" s="25"/>
+    </row>
+    <row r="68" spans="1:69">
+      <c r="B68" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="B46" s="9" t="s">
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="12"/>
+      <c r="AN68" s="12"/>
+      <c r="AO68" s="12"/>
+      <c r="AP68" s="12"/>
+      <c r="AQ68" s="12"/>
+      <c r="AR68" s="12"/>
+      <c r="AS68" s="12"/>
+      <c r="AT68" s="12"/>
+      <c r="AU68" s="12"/>
+      <c r="AV68" s="12"/>
+      <c r="AW68" s="12"/>
+      <c r="AX68" s="12"/>
+      <c r="AY68" s="12"/>
+      <c r="AZ68" s="12"/>
+      <c r="BA68" s="12"/>
+      <c r="BB68" s="12"/>
+      <c r="BC68" s="12"/>
+      <c r="BD68" s="12"/>
+      <c r="BE68" s="12"/>
+      <c r="BF68" s="12"/>
+      <c r="BG68" s="12"/>
+      <c r="BH68" s="12"/>
+      <c r="BI68" s="12"/>
+      <c r="BJ68" s="12"/>
+      <c r="BK68" s="12"/>
+      <c r="BL68" s="12"/>
+      <c r="BM68" s="12"/>
+      <c r="BN68" s="12"/>
+      <c r="BO68" s="12"/>
+      <c r="BP68" s="12"/>
+      <c r="BQ68" s="12"/>
+    </row>
+    <row r="69" spans="1:69">
+      <c r="B69" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="B47" s="3" t="s">
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="12"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="12"/>
+      <c r="AT69" s="12"/>
+      <c r="AU69" s="12"/>
+      <c r="AV69" s="12"/>
+      <c r="AW69" s="12"/>
+      <c r="AX69" s="12"/>
+      <c r="AY69" s="12"/>
+      <c r="AZ69" s="12"/>
+      <c r="BA69" s="12"/>
+      <c r="BB69" s="12"/>
+      <c r="BC69" s="12"/>
+      <c r="BD69" s="12"/>
+      <c r="BE69" s="12"/>
+      <c r="BF69" s="12"/>
+      <c r="BG69" s="12"/>
+      <c r="BH69" s="12"/>
+      <c r="BI69" s="12"/>
+      <c r="BJ69" s="12"/>
+      <c r="BK69" s="12"/>
+      <c r="BL69" s="12"/>
+      <c r="BM69" s="12"/>
+      <c r="BN69" s="12"/>
+      <c r="BO69" s="12"/>
+      <c r="BP69" s="12"/>
+      <c r="BQ69" s="12"/>
+    </row>
+    <row r="70" spans="1:69">
+      <c r="B70" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>18</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="3"/>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="10"/>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="10"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="12"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+      <c r="AM70" s="12"/>
+      <c r="AN70" s="12"/>
+      <c r="AO70" s="12"/>
+      <c r="AP70" s="12"/>
+      <c r="AQ70" s="12"/>
+      <c r="AR70" s="12"/>
+      <c r="AS70" s="12"/>
+      <c r="AT70" s="12"/>
+      <c r="AU70" s="12"/>
+      <c r="AV70" s="12"/>
+      <c r="AW70" s="12"/>
+      <c r="AX70" s="12"/>
+      <c r="AY70" s="12"/>
+      <c r="AZ70" s="12"/>
+      <c r="BA70" s="12"/>
+      <c r="BB70" s="12"/>
+      <c r="BC70" s="12"/>
+      <c r="BD70" s="12"/>
+      <c r="BE70" s="12"/>
+      <c r="BF70" s="12"/>
+      <c r="BG70" s="12"/>
+      <c r="BH70" s="12"/>
+      <c r="BI70" s="12"/>
+      <c r="BJ70" s="12"/>
+      <c r="BK70" s="12"/>
+      <c r="BL70" s="12"/>
+      <c r="BM70" s="12"/>
+      <c r="BN70" s="12"/>
+      <c r="BO70" s="12"/>
+      <c r="BP70" s="12"/>
+      <c r="BQ70" s="12"/>
+    </row>
+    <row r="71" spans="1:69">
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="12"/>
+      <c r="AN71" s="12"/>
+      <c r="AO71" s="12"/>
+      <c r="AP71" s="12"/>
+      <c r="AQ71" s="12"/>
+      <c r="AR71" s="12"/>
+      <c r="AS71" s="12"/>
+      <c r="AT71" s="12"/>
+      <c r="AU71" s="12"/>
+      <c r="AV71" s="12"/>
+      <c r="AW71" s="12"/>
+      <c r="AX71" s="12"/>
+      <c r="AY71" s="12"/>
+      <c r="AZ71" s="12"/>
+      <c r="BA71" s="12"/>
+      <c r="BB71" s="12"/>
+      <c r="BC71" s="12"/>
+      <c r="BD71" s="12"/>
+      <c r="BE71" s="12"/>
+      <c r="BF71" s="12"/>
+      <c r="BG71" s="12"/>
+      <c r="BH71" s="12"/>
+      <c r="BI71" s="12"/>
+      <c r="BJ71" s="12"/>
+      <c r="BK71" s="12"/>
+      <c r="BL71" s="12"/>
+      <c r="BM71" s="12"/>
+      <c r="BN71" s="12"/>
+      <c r="BO71" s="12"/>
+      <c r="BP71" s="12"/>
+      <c r="BQ71" s="12"/>
+    </row>
+    <row r="72" spans="1:69">
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="12"/>
+      <c r="AN72" s="12"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="12"/>
+      <c r="AQ72" s="12"/>
+      <c r="AR72" s="12"/>
+      <c r="AS72" s="12"/>
+      <c r="AT72" s="12"/>
+      <c r="AU72" s="12"/>
+      <c r="AV72" s="12"/>
+      <c r="AW72" s="12"/>
+      <c r="AX72" s="12"/>
+      <c r="AY72" s="12"/>
+      <c r="AZ72" s="12"/>
+      <c r="BA72" s="12"/>
+      <c r="BB72" s="12"/>
+      <c r="BC72" s="12"/>
+      <c r="BD72" s="12"/>
+      <c r="BE72" s="12"/>
+      <c r="BF72" s="12"/>
+      <c r="BG72" s="12"/>
+      <c r="BH72" s="12"/>
+      <c r="BI72" s="12"/>
+      <c r="BJ72" s="12"/>
+      <c r="BK72" s="12"/>
+      <c r="BL72" s="12"/>
+      <c r="BM72" s="12"/>
+      <c r="BN72" s="12"/>
+      <c r="BO72" s="12"/>
+      <c r="BP72" s="12"/>
+      <c r="BQ72" s="12"/>
+    </row>
+    <row r="73" spans="1:69">
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="12"/>
+      <c r="AN73" s="12"/>
+      <c r="AO73" s="12"/>
+      <c r="AP73" s="12"/>
+      <c r="AQ73" s="12"/>
+      <c r="AR73" s="12"/>
+      <c r="AS73" s="12"/>
+      <c r="AT73" s="12"/>
+      <c r="AU73" s="12"/>
+      <c r="AV73" s="12"/>
+      <c r="AW73" s="12"/>
+      <c r="AX73" s="12"/>
+      <c r="AY73" s="12"/>
+      <c r="AZ73" s="12"/>
+      <c r="BA73" s="12"/>
+      <c r="BB73" s="12"/>
+      <c r="BC73" s="12"/>
+      <c r="BD73" s="12"/>
+      <c r="BE73" s="12"/>
+      <c r="BF73" s="12"/>
+      <c r="BG73" s="12"/>
+      <c r="BH73" s="12"/>
+      <c r="BI73" s="12"/>
+      <c r="BJ73" s="12"/>
+      <c r="BK73" s="12"/>
+      <c r="BL73" s="12"/>
+      <c r="BM73" s="12"/>
+      <c r="BN73" s="12"/>
+      <c r="BO73" s="12"/>
+      <c r="BP73" s="12"/>
+      <c r="BQ73" s="12"/>
+    </row>
+    <row r="74" spans="1:69">
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="12"/>
+      <c r="AN74" s="12"/>
+      <c r="AO74" s="12"/>
+      <c r="AP74" s="12"/>
+      <c r="AQ74" s="12"/>
+      <c r="AR74" s="12"/>
+      <c r="AS74" s="12"/>
+      <c r="AT74" s="12"/>
+      <c r="AU74" s="12"/>
+      <c r="AV74" s="12"/>
+      <c r="AW74" s="12"/>
+      <c r="AX74" s="12"/>
+      <c r="AY74" s="12"/>
+      <c r="AZ74" s="12"/>
+      <c r="BA74" s="12"/>
+      <c r="BB74" s="12"/>
+      <c r="BC74" s="12"/>
+      <c r="BD74" s="12"/>
+      <c r="BE74" s="12"/>
+      <c r="BF74" s="12"/>
+      <c r="BG74" s="12"/>
+      <c r="BH74" s="12"/>
+      <c r="BI74" s="12"/>
+      <c r="BJ74" s="12"/>
+      <c r="BK74" s="12"/>
+      <c r="BL74" s="12"/>
+      <c r="BM74" s="12"/>
+      <c r="BN74" s="12"/>
+      <c r="BO74" s="12"/>
+      <c r="BP74" s="12"/>
+      <c r="BQ74" s="12"/>
+    </row>
+    <row r="75" spans="1:69">
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="12"/>
+      <c r="AB75" s="12"/>
+      <c r="AC75" s="12"/>
+      <c r="AD75" s="12"/>
+      <c r="AE75" s="12"/>
+      <c r="AF75" s="12"/>
+      <c r="AG75" s="12"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="12"/>
+      <c r="AJ75" s="12"/>
+      <c r="AK75" s="12"/>
+      <c r="AL75" s="12"/>
+      <c r="AM75" s="12"/>
+      <c r="AN75" s="12"/>
+      <c r="AO75" s="12"/>
+      <c r="AP75" s="12"/>
+      <c r="AQ75" s="12"/>
+      <c r="AR75" s="12"/>
+      <c r="AS75" s="12"/>
+      <c r="AT75" s="12"/>
+      <c r="AU75" s="12"/>
+      <c r="AV75" s="12"/>
+      <c r="AW75" s="12"/>
+      <c r="AX75" s="12"/>
+      <c r="AY75" s="12"/>
+      <c r="AZ75" s="12"/>
+      <c r="BA75" s="12"/>
+      <c r="BB75" s="12"/>
+      <c r="BC75" s="12"/>
+      <c r="BD75" s="12"/>
+      <c r="BE75" s="12"/>
+      <c r="BF75" s="12"/>
+      <c r="BG75" s="12"/>
+      <c r="BH75" s="12"/>
+      <c r="BI75" s="12"/>
+      <c r="BJ75" s="12"/>
+      <c r="BK75" s="12"/>
+      <c r="BL75" s="12"/>
+      <c r="BM75" s="12"/>
+      <c r="BN75" s="12"/>
+      <c r="BO75" s="12"/>
+      <c r="BP75" s="12"/>
+      <c r="BQ75" s="12"/>
+    </row>
+    <row r="76" spans="1:69">
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="12"/>
+      <c r="AC76" s="12"/>
+      <c r="AD76" s="12"/>
+      <c r="AE76" s="12"/>
+      <c r="AF76" s="12"/>
+      <c r="AG76" s="12"/>
+      <c r="AH76" s="12"/>
+      <c r="AI76" s="12"/>
+      <c r="AJ76" s="12"/>
+      <c r="AK76" s="12"/>
+      <c r="AL76" s="12"/>
+      <c r="AM76" s="12"/>
+      <c r="AN76" s="12"/>
+      <c r="AO76" s="12"/>
+      <c r="AP76" s="12"/>
+      <c r="AQ76" s="12"/>
+      <c r="AR76" s="12"/>
+      <c r="AS76" s="12"/>
+      <c r="AT76" s="12"/>
+      <c r="AU76" s="12"/>
+      <c r="AV76" s="12"/>
+      <c r="AW76" s="12"/>
+      <c r="AX76" s="12"/>
+      <c r="AY76" s="12"/>
+      <c r="AZ76" s="12"/>
+      <c r="BA76" s="12"/>
+      <c r="BB76" s="12"/>
+      <c r="BC76" s="12"/>
+      <c r="BD76" s="12"/>
+      <c r="BE76" s="12"/>
+      <c r="BF76" s="12"/>
+      <c r="BG76" s="12"/>
+      <c r="BH76" s="12"/>
+      <c r="BI76" s="12"/>
+      <c r="BJ76" s="12"/>
+      <c r="BK76" s="12"/>
+      <c r="BL76" s="12"/>
+      <c r="BM76" s="12"/>
+      <c r="BN76" s="12"/>
+      <c r="BO76" s="12"/>
+      <c r="BP76" s="12"/>
+      <c r="BQ76" s="12"/>
+    </row>
+    <row r="77" spans="1:69">
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="12"/>
+      <c r="AA77" s="12"/>
+      <c r="AB77" s="12"/>
+      <c r="AC77" s="12"/>
+      <c r="AD77" s="12"/>
+      <c r="AE77" s="12"/>
+      <c r="AF77" s="12"/>
+      <c r="AG77" s="12"/>
+      <c r="AH77" s="12"/>
+      <c r="AI77" s="12"/>
+      <c r="AJ77" s="12"/>
+      <c r="AK77" s="12"/>
+      <c r="AL77" s="12"/>
+      <c r="AM77" s="12"/>
+      <c r="AN77" s="12"/>
+      <c r="AO77" s="12"/>
+      <c r="AP77" s="12"/>
+      <c r="AQ77" s="12"/>
+      <c r="AR77" s="12"/>
+      <c r="AS77" s="12"/>
+      <c r="AT77" s="12"/>
+      <c r="AU77" s="12"/>
+      <c r="AV77" s="12"/>
+      <c r="AW77" s="12"/>
+      <c r="AX77" s="12"/>
+      <c r="AY77" s="12"/>
+      <c r="AZ77" s="12"/>
+      <c r="BA77" s="12"/>
+      <c r="BB77" s="12"/>
+      <c r="BC77" s="12"/>
+      <c r="BD77" s="12"/>
+      <c r="BE77" s="12"/>
+      <c r="BF77" s="12"/>
+      <c r="BG77" s="12"/>
+      <c r="BH77" s="12"/>
+      <c r="BI77" s="12"/>
+      <c r="BJ77" s="12"/>
+      <c r="BK77" s="12"/>
+      <c r="BL77" s="12"/>
+      <c r="BM77" s="12"/>
+      <c r="BN77" s="12"/>
+      <c r="BO77" s="12"/>
+      <c r="BP77" s="12"/>
+      <c r="BQ77" s="12"/>
+    </row>
+    <row r="78" spans="1:69">
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="12"/>
+      <c r="AC78" s="12"/>
+      <c r="AD78" s="12"/>
+      <c r="AE78" s="12"/>
+      <c r="AF78" s="12"/>
+      <c r="AG78" s="12"/>
+      <c r="AH78" s="12"/>
+      <c r="AI78" s="12"/>
+      <c r="AJ78" s="12"/>
+      <c r="AK78" s="12"/>
+      <c r="AL78" s="12"/>
+      <c r="AM78" s="12"/>
+      <c r="AN78" s="12"/>
+      <c r="AO78" s="12"/>
+      <c r="AP78" s="12"/>
+      <c r="AQ78" s="12"/>
+      <c r="AR78" s="12"/>
+      <c r="AS78" s="12"/>
+      <c r="AT78" s="12"/>
+      <c r="AU78" s="12"/>
+      <c r="AV78" s="12"/>
+      <c r="AW78" s="12"/>
+      <c r="AX78" s="12"/>
+      <c r="AY78" s="12"/>
+      <c r="AZ78" s="12"/>
+      <c r="BA78" s="12"/>
+      <c r="BB78" s="12"/>
+      <c r="BC78" s="12"/>
+      <c r="BD78" s="12"/>
+      <c r="BE78" s="12"/>
+      <c r="BF78" s="12"/>
+      <c r="BG78" s="12"/>
+      <c r="BH78" s="12"/>
+      <c r="BI78" s="12"/>
+      <c r="BJ78" s="12"/>
+      <c r="BK78" s="12"/>
+      <c r="BL78" s="12"/>
+      <c r="BM78" s="12"/>
+      <c r="BN78" s="12"/>
+      <c r="BO78" s="12"/>
+      <c r="BP78" s="12"/>
+      <c r="BQ78" s="12"/>
+    </row>
+    <row r="79" spans="1:69">
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="12"/>
+      <c r="AB79" s="12"/>
+      <c r="AC79" s="12"/>
+      <c r="AD79" s="12"/>
+      <c r="AE79" s="12"/>
+      <c r="AF79" s="12"/>
+      <c r="AG79" s="12"/>
+      <c r="AH79" s="12"/>
+      <c r="AI79" s="12"/>
+      <c r="AJ79" s="12"/>
+      <c r="AK79" s="12"/>
+      <c r="AL79" s="12"/>
+      <c r="AM79" s="12"/>
+      <c r="AN79" s="12"/>
+      <c r="AO79" s="12"/>
+      <c r="AP79" s="12"/>
+      <c r="AQ79" s="12"/>
+      <c r="AR79" s="12"/>
+      <c r="AS79" s="12"/>
+      <c r="AT79" s="12"/>
+      <c r="AU79" s="12"/>
+      <c r="AV79" s="12"/>
+      <c r="AW79" s="12"/>
+      <c r="AX79" s="12"/>
+      <c r="AY79" s="12"/>
+      <c r="AZ79" s="12"/>
+      <c r="BA79" s="12"/>
+      <c r="BB79" s="12"/>
+      <c r="BC79" s="12"/>
+      <c r="BD79" s="12"/>
+      <c r="BE79" s="12"/>
+      <c r="BF79" s="12"/>
+      <c r="BG79" s="12"/>
+      <c r="BH79" s="12"/>
+      <c r="BI79" s="12"/>
+      <c r="BJ79" s="12"/>
+      <c r="BK79" s="12"/>
+      <c r="BL79" s="12"/>
+      <c r="BM79" s="12"/>
+      <c r="BN79" s="12"/>
+      <c r="BO79" s="12"/>
+      <c r="BP79" s="12"/>
+      <c r="BQ79" s="12"/>
+    </row>
+    <row r="80" spans="1:69">
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="12"/>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="12"/>
+      <c r="AC80" s="12"/>
+      <c r="AD80" s="12"/>
+      <c r="AE80" s="12"/>
+      <c r="AF80" s="12"/>
+      <c r="AG80" s="12"/>
+      <c r="AH80" s="12"/>
+      <c r="AI80" s="12"/>
+      <c r="AJ80" s="12"/>
+      <c r="AK80" s="12"/>
+      <c r="AL80" s="12"/>
+      <c r="AM80" s="12"/>
+      <c r="AN80" s="12"/>
+      <c r="AO80" s="12"/>
+      <c r="AP80" s="12"/>
+      <c r="AQ80" s="12"/>
+      <c r="AR80" s="12"/>
+      <c r="AS80" s="12"/>
+      <c r="AT80" s="12"/>
+      <c r="AU80" s="12"/>
+      <c r="AV80" s="12"/>
+      <c r="AW80" s="12"/>
+      <c r="AX80" s="12"/>
+      <c r="AY80" s="12"/>
+      <c r="AZ80" s="12"/>
+      <c r="BA80" s="12"/>
+      <c r="BB80" s="12"/>
+      <c r="BC80" s="12"/>
+      <c r="BD80" s="12"/>
+      <c r="BE80" s="12"/>
+      <c r="BF80" s="12"/>
+      <c r="BG80" s="12"/>
+      <c r="BH80" s="12"/>
+      <c r="BI80" s="12"/>
+      <c r="BJ80" s="12"/>
+      <c r="BK80" s="12"/>
+      <c r="BL80" s="12"/>
+      <c r="BM80" s="12"/>
+      <c r="BN80" s="12"/>
+      <c r="BO80" s="12"/>
+      <c r="BP80" s="12"/>
+      <c r="BQ80" s="12"/>
+    </row>
+    <row r="81" spans="5:69">
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="12"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="12"/>
+      <c r="AA81" s="12"/>
+      <c r="AB81" s="12"/>
+      <c r="AC81" s="12"/>
+      <c r="AD81" s="12"/>
+      <c r="AE81" s="12"/>
+      <c r="AF81" s="12"/>
+      <c r="AG81" s="12"/>
+      <c r="AH81" s="12"/>
+      <c r="AI81" s="12"/>
+      <c r="AJ81" s="12"/>
+      <c r="AK81" s="12"/>
+      <c r="AL81" s="12"/>
+      <c r="AM81" s="12"/>
+      <c r="AN81" s="12"/>
+      <c r="AO81" s="12"/>
+      <c r="AP81" s="12"/>
+      <c r="AQ81" s="12"/>
+      <c r="AR81" s="12"/>
+      <c r="AS81" s="12"/>
+      <c r="AT81" s="12"/>
+      <c r="AU81" s="12"/>
+      <c r="AV81" s="12"/>
+      <c r="AW81" s="12"/>
+      <c r="AX81" s="12"/>
+      <c r="AY81" s="12"/>
+      <c r="AZ81" s="12"/>
+      <c r="BA81" s="12"/>
+      <c r="BB81" s="12"/>
+      <c r="BC81" s="12"/>
+      <c r="BD81" s="12"/>
+      <c r="BE81" s="12"/>
+      <c r="BF81" s="12"/>
+      <c r="BG81" s="12"/>
+      <c r="BH81" s="12"/>
+      <c r="BI81" s="12"/>
+      <c r="BJ81" s="12"/>
+      <c r="BK81" s="12"/>
+      <c r="BL81" s="12"/>
+      <c r="BM81" s="12"/>
+      <c r="BN81" s="12"/>
+      <c r="BO81" s="12"/>
+      <c r="BP81" s="12"/>
+      <c r="BQ81" s="12"/>
+    </row>
+    <row r="82" spans="5:69">
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="12"/>
+      <c r="AB82" s="12"/>
+      <c r="AC82" s="12"/>
+      <c r="AD82" s="12"/>
+      <c r="AE82" s="12"/>
+      <c r="AF82" s="12"/>
+      <c r="AG82" s="12"/>
+      <c r="AH82" s="12"/>
+      <c r="AI82" s="12"/>
+      <c r="AJ82" s="12"/>
+      <c r="AK82" s="12"/>
+      <c r="AL82" s="12"/>
+      <c r="AM82" s="12"/>
+      <c r="AN82" s="12"/>
+      <c r="AO82" s="12"/>
+      <c r="AP82" s="12"/>
+      <c r="AQ82" s="12"/>
+      <c r="AR82" s="12"/>
+      <c r="AS82" s="12"/>
+      <c r="AT82" s="12"/>
+      <c r="AU82" s="12"/>
+      <c r="AV82" s="12"/>
+      <c r="AW82" s="12"/>
+      <c r="AX82" s="12"/>
+      <c r="AY82" s="12"/>
+      <c r="AZ82" s="12"/>
+      <c r="BA82" s="12"/>
+      <c r="BB82" s="12"/>
+      <c r="BC82" s="12"/>
+      <c r="BD82" s="12"/>
+      <c r="BE82" s="12"/>
+      <c r="BF82" s="12"/>
+      <c r="BG82" s="12"/>
+      <c r="BH82" s="12"/>
+      <c r="BI82" s="12"/>
+      <c r="BJ82" s="12"/>
+      <c r="BK82" s="12"/>
+      <c r="BL82" s="12"/>
+      <c r="BM82" s="12"/>
+      <c r="BN82" s="12"/>
+      <c r="BO82" s="12"/>
+      <c r="BP82" s="12"/>
+      <c r="BQ82" s="12"/>
+    </row>
+    <row r="83" spans="5:69">
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="12"/>
+      <c r="AC83" s="12"/>
+      <c r="AD83" s="12"/>
+      <c r="AE83" s="12"/>
+      <c r="AF83" s="12"/>
+      <c r="AG83" s="12"/>
+      <c r="AH83" s="12"/>
+      <c r="AI83" s="12"/>
+      <c r="AJ83" s="12"/>
+      <c r="AK83" s="12"/>
+      <c r="AL83" s="12"/>
+      <c r="AM83" s="12"/>
+      <c r="AN83" s="12"/>
+      <c r="AO83" s="12"/>
+      <c r="AP83" s="12"/>
+      <c r="AQ83" s="12"/>
+      <c r="AR83" s="12"/>
+      <c r="AS83" s="12"/>
+      <c r="AT83" s="12"/>
+      <c r="AU83" s="12"/>
+      <c r="AV83" s="12"/>
+      <c r="AW83" s="12"/>
+      <c r="AX83" s="12"/>
+      <c r="AY83" s="12"/>
+      <c r="AZ83" s="12"/>
+      <c r="BA83" s="12"/>
+      <c r="BB83" s="12"/>
+      <c r="BC83" s="12"/>
+      <c r="BD83" s="12"/>
+      <c r="BE83" s="12"/>
+      <c r="BF83" s="12"/>
+      <c r="BG83" s="12"/>
+      <c r="BH83" s="12"/>
+      <c r="BI83" s="12"/>
+      <c r="BJ83" s="12"/>
+      <c r="BK83" s="12"/>
+      <c r="BL83" s="12"/>
+      <c r="BM83" s="12"/>
+      <c r="BN83" s="12"/>
+      <c r="BO83" s="12"/>
+      <c r="BP83" s="12"/>
+      <c r="BQ83" s="12"/>
+    </row>
+    <row r="84" spans="5:69">
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="12"/>
+      <c r="AC84" s="12"/>
+      <c r="AD84" s="12"/>
+      <c r="AE84" s="12"/>
+      <c r="AF84" s="12"/>
+      <c r="AG84" s="12"/>
+      <c r="AH84" s="12"/>
+      <c r="AI84" s="12"/>
+      <c r="AJ84" s="12"/>
+      <c r="AK84" s="12"/>
+      <c r="AL84" s="12"/>
+      <c r="AM84" s="12"/>
+      <c r="AN84" s="12"/>
+      <c r="AO84" s="12"/>
+      <c r="AP84" s="12"/>
+      <c r="AQ84" s="12"/>
+      <c r="AR84" s="12"/>
+      <c r="AS84" s="12"/>
+      <c r="AT84" s="12"/>
+      <c r="AU84" s="12"/>
+      <c r="AV84" s="12"/>
+      <c r="AW84" s="12"/>
+      <c r="AX84" s="12"/>
+      <c r="AY84" s="12"/>
+      <c r="AZ84" s="12"/>
+      <c r="BA84" s="12"/>
+      <c r="BB84" s="12"/>
+      <c r="BC84" s="12"/>
+      <c r="BD84" s="12"/>
+      <c r="BE84" s="12"/>
+      <c r="BF84" s="12"/>
+      <c r="BG84" s="12"/>
+      <c r="BH84" s="12"/>
+      <c r="BI84" s="12"/>
+      <c r="BJ84" s="12"/>
+      <c r="BK84" s="12"/>
+      <c r="BL84" s="12"/>
+      <c r="BM84" s="12"/>
+      <c r="BN84" s="12"/>
+      <c r="BO84" s="12"/>
+      <c r="BP84" s="12"/>
+      <c r="BQ84" s="12"/>
+    </row>
+    <row r="85" spans="5:69">
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="12"/>
+      <c r="AC85" s="12"/>
+      <c r="AD85" s="12"/>
+      <c r="AE85" s="12"/>
+      <c r="AF85" s="12"/>
+      <c r="AG85" s="12"/>
+      <c r="AH85" s="12"/>
+      <c r="AI85" s="12"/>
+      <c r="AJ85" s="12"/>
+      <c r="AK85" s="12"/>
+      <c r="AL85" s="12"/>
+      <c r="AM85" s="12"/>
+      <c r="AN85" s="12"/>
+      <c r="AO85" s="12"/>
+      <c r="AP85" s="12"/>
+      <c r="AQ85" s="12"/>
+      <c r="AR85" s="12"/>
+      <c r="AS85" s="12"/>
+      <c r="AT85" s="12"/>
+      <c r="AU85" s="12"/>
+      <c r="AV85" s="12"/>
+      <c r="AW85" s="12"/>
+      <c r="AX85" s="12"/>
+      <c r="AY85" s="12"/>
+      <c r="AZ85" s="12"/>
+      <c r="BA85" s="12"/>
+      <c r="BB85" s="12"/>
+      <c r="BC85" s="12"/>
+      <c r="BD85" s="12"/>
+      <c r="BE85" s="12"/>
+      <c r="BF85" s="12"/>
+      <c r="BG85" s="12"/>
+      <c r="BH85" s="12"/>
+      <c r="BI85" s="12"/>
+      <c r="BJ85" s="12"/>
+      <c r="BK85" s="12"/>
+      <c r="BL85" s="12"/>
+      <c r="BM85" s="12"/>
+      <c r="BN85" s="12"/>
+      <c r="BO85" s="12"/>
+      <c r="BP85" s="12"/>
+      <c r="BQ85" s="12"/>
+    </row>
+    <row r="86" spans="5:69">
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="12"/>
+      <c r="AC86" s="12"/>
+      <c r="AD86" s="12"/>
+      <c r="AE86" s="12"/>
+      <c r="AF86" s="12"/>
+      <c r="AG86" s="12"/>
+      <c r="AH86" s="12"/>
+      <c r="AI86" s="12"/>
+      <c r="AJ86" s="12"/>
+      <c r="AK86" s="12"/>
+      <c r="AL86" s="12"/>
+      <c r="AM86" s="12"/>
+      <c r="AN86" s="12"/>
+      <c r="AO86" s="12"/>
+      <c r="AP86" s="12"/>
+      <c r="AQ86" s="12"/>
+      <c r="AR86" s="12"/>
+      <c r="AS86" s="12"/>
+      <c r="AT86" s="12"/>
+      <c r="AU86" s="12"/>
+      <c r="AV86" s="12"/>
+      <c r="AW86" s="12"/>
+      <c r="AX86" s="12"/>
+      <c r="AY86" s="12"/>
+      <c r="AZ86" s="12"/>
+      <c r="BA86" s="12"/>
+      <c r="BB86" s="12"/>
+      <c r="BC86" s="12"/>
+      <c r="BD86" s="12"/>
+      <c r="BE86" s="12"/>
+      <c r="BF86" s="12"/>
+      <c r="BG86" s="12"/>
+      <c r="BH86" s="12"/>
+      <c r="BI86" s="12"/>
+      <c r="BJ86" s="12"/>
+      <c r="BK86" s="12"/>
+      <c r="BL86" s="12"/>
+      <c r="BM86" s="12"/>
+      <c r="BN86" s="12"/>
+      <c r="BO86" s="12"/>
+      <c r="BP86" s="12"/>
+      <c r="BQ86" s="12"/>
+    </row>
+    <row r="87" spans="5:69">
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="12"/>
+      <c r="AB87" s="12"/>
+      <c r="AC87" s="12"/>
+      <c r="AD87" s="12"/>
+      <c r="AE87" s="12"/>
+      <c r="AF87" s="12"/>
+      <c r="AG87" s="12"/>
+      <c r="AH87" s="12"/>
+      <c r="AI87" s="12"/>
+      <c r="AJ87" s="12"/>
+      <c r="AK87" s="12"/>
+      <c r="AL87" s="12"/>
+      <c r="AM87" s="12"/>
+      <c r="AN87" s="12"/>
+      <c r="AO87" s="12"/>
+      <c r="AP87" s="12"/>
+      <c r="AQ87" s="12"/>
+      <c r="AR87" s="12"/>
+      <c r="AS87" s="12"/>
+      <c r="AT87" s="12"/>
+      <c r="AU87" s="12"/>
+      <c r="AV87" s="12"/>
+      <c r="AW87" s="12"/>
+      <c r="AX87" s="12"/>
+      <c r="AY87" s="12"/>
+      <c r="AZ87" s="12"/>
+      <c r="BA87" s="12"/>
+      <c r="BB87" s="12"/>
+      <c r="BC87" s="12"/>
+      <c r="BD87" s="12"/>
+      <c r="BE87" s="12"/>
+      <c r="BF87" s="12"/>
+      <c r="BG87" s="12"/>
+      <c r="BH87" s="12"/>
+      <c r="BI87" s="12"/>
+      <c r="BJ87" s="12"/>
+      <c r="BK87" s="12"/>
+      <c r="BL87" s="12"/>
+      <c r="BM87" s="12"/>
+      <c r="BN87" s="12"/>
+      <c r="BO87" s="12"/>
+      <c r="BP87" s="12"/>
+      <c r="BQ87" s="12"/>
+    </row>
+    <row r="88" spans="5:69">
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="12"/>
+      <c r="AC88" s="12"/>
+      <c r="AD88" s="12"/>
+      <c r="AE88" s="12"/>
+      <c r="AF88" s="12"/>
+      <c r="AG88" s="12"/>
+      <c r="AH88" s="12"/>
+      <c r="AI88" s="12"/>
+      <c r="AJ88" s="12"/>
+      <c r="AK88" s="12"/>
+      <c r="AL88" s="12"/>
+      <c r="AM88" s="12"/>
+      <c r="AN88" s="12"/>
+      <c r="AO88" s="12"/>
+      <c r="AP88" s="12"/>
+      <c r="AQ88" s="12"/>
+      <c r="AR88" s="12"/>
+      <c r="AS88" s="12"/>
+      <c r="AT88" s="12"/>
+      <c r="AU88" s="12"/>
+      <c r="AV88" s="12"/>
+      <c r="AW88" s="12"/>
+      <c r="AX88" s="12"/>
+      <c r="AY88" s="12"/>
+      <c r="AZ88" s="12"/>
+      <c r="BA88" s="12"/>
+      <c r="BB88" s="12"/>
+      <c r="BC88" s="12"/>
+      <c r="BD88" s="12"/>
+      <c r="BE88" s="12"/>
+      <c r="BF88" s="12"/>
+      <c r="BG88" s="12"/>
+      <c r="BH88" s="12"/>
+      <c r="BI88" s="12"/>
+      <c r="BJ88" s="12"/>
+      <c r="BK88" s="12"/>
+      <c r="BL88" s="12"/>
+      <c r="BM88" s="12"/>
+      <c r="BN88" s="12"/>
+      <c r="BO88" s="12"/>
+      <c r="BP88" s="12"/>
+      <c r="BQ88" s="12"/>
+    </row>
+    <row r="89" spans="5:69">
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="12"/>
+      <c r="AB89" s="12"/>
+      <c r="AC89" s="12"/>
+      <c r="AD89" s="12"/>
+      <c r="AE89" s="12"/>
+      <c r="AF89" s="12"/>
+      <c r="AG89" s="12"/>
+      <c r="AH89" s="12"/>
+      <c r="AI89" s="12"/>
+      <c r="AJ89" s="12"/>
+      <c r="AK89" s="12"/>
+      <c r="AL89" s="12"/>
+      <c r="AM89" s="12"/>
+      <c r="AN89" s="12"/>
+      <c r="AO89" s="12"/>
+      <c r="AP89" s="12"/>
+      <c r="AQ89" s="12"/>
+      <c r="AR89" s="12"/>
+      <c r="AS89" s="12"/>
+      <c r="AT89" s="12"/>
+      <c r="AU89" s="12"/>
+      <c r="AV89" s="12"/>
+      <c r="AW89" s="12"/>
+      <c r="AX89" s="12"/>
+      <c r="AY89" s="12"/>
+      <c r="AZ89" s="12"/>
+      <c r="BA89" s="12"/>
+      <c r="BB89" s="12"/>
+      <c r="BC89" s="12"/>
+      <c r="BD89" s="12"/>
+      <c r="BE89" s="12"/>
+      <c r="BF89" s="12"/>
+      <c r="BG89" s="12"/>
+      <c r="BH89" s="12"/>
+      <c r="BI89" s="12"/>
+      <c r="BJ89" s="12"/>
+      <c r="BK89" s="12"/>
+      <c r="BL89" s="12"/>
+      <c r="BM89" s="12"/>
+      <c r="BN89" s="12"/>
+      <c r="BO89" s="12"/>
+      <c r="BP89" s="12"/>
+      <c r="BQ89" s="12"/>
+    </row>
+    <row r="90" spans="5:69">
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="12"/>
+      <c r="AB90" s="12"/>
+      <c r="AC90" s="12"/>
+      <c r="AD90" s="12"/>
+      <c r="AE90" s="12"/>
+      <c r="AF90" s="12"/>
+      <c r="AG90" s="12"/>
+      <c r="AH90" s="12"/>
+      <c r="AI90" s="12"/>
+      <c r="AJ90" s="12"/>
+      <c r="AK90" s="12"/>
+      <c r="AL90" s="12"/>
+      <c r="AM90" s="12"/>
+      <c r="AN90" s="12"/>
+      <c r="AO90" s="12"/>
+      <c r="AP90" s="12"/>
+      <c r="AQ90" s="12"/>
+      <c r="AR90" s="12"/>
+      <c r="AS90" s="12"/>
+      <c r="AT90" s="12"/>
+      <c r="AU90" s="12"/>
+      <c r="AV90" s="12"/>
+      <c r="AW90" s="12"/>
+      <c r="AX90" s="12"/>
+      <c r="AY90" s="12"/>
+      <c r="AZ90" s="12"/>
+      <c r="BA90" s="12"/>
+      <c r="BB90" s="12"/>
+      <c r="BC90" s="12"/>
+      <c r="BD90" s="12"/>
+      <c r="BE90" s="12"/>
+      <c r="BF90" s="12"/>
+      <c r="BG90" s="12"/>
+      <c r="BH90" s="12"/>
+      <c r="BI90" s="12"/>
+      <c r="BJ90" s="12"/>
+      <c r="BK90" s="12"/>
+      <c r="BL90" s="12"/>
+      <c r="BM90" s="12"/>
+      <c r="BN90" s="12"/>
+      <c r="BO90" s="12"/>
+      <c r="BP90" s="12"/>
+      <c r="BQ90" s="12"/>
+    </row>
+    <row r="91" spans="5:69">
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="12"/>
+      <c r="AB91" s="12"/>
+      <c r="AC91" s="12"/>
+      <c r="AD91" s="12"/>
+      <c r="AE91" s="12"/>
+      <c r="AF91" s="12"/>
+      <c r="AG91" s="12"/>
+      <c r="AH91" s="12"/>
+      <c r="AI91" s="12"/>
+      <c r="AJ91" s="12"/>
+      <c r="AK91" s="12"/>
+      <c r="AL91" s="12"/>
+      <c r="AM91" s="12"/>
+      <c r="AN91" s="12"/>
+      <c r="AO91" s="12"/>
+      <c r="AP91" s="12"/>
+      <c r="AQ91" s="12"/>
+      <c r="AR91" s="12"/>
+      <c r="AS91" s="12"/>
+      <c r="AT91" s="12"/>
+      <c r="AU91" s="12"/>
+      <c r="AV91" s="12"/>
+      <c r="AW91" s="12"/>
+      <c r="AX91" s="12"/>
+      <c r="AY91" s="12"/>
+      <c r="AZ91" s="12"/>
+      <c r="BA91" s="12"/>
+      <c r="BB91" s="12"/>
+      <c r="BC91" s="12"/>
+      <c r="BD91" s="12"/>
+      <c r="BE91" s="12"/>
+      <c r="BF91" s="12"/>
+      <c r="BG91" s="12"/>
+      <c r="BH91" s="12"/>
+      <c r="BI91" s="12"/>
+      <c r="BJ91" s="12"/>
+      <c r="BK91" s="12"/>
+      <c r="BL91" s="12"/>
+      <c r="BM91" s="12"/>
+      <c r="BN91" s="12"/>
+      <c r="BO91" s="12"/>
+      <c r="BP91" s="12"/>
+      <c r="BQ91" s="12"/>
+    </row>
+    <row r="92" spans="5:69">
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="12"/>
+      <c r="AB92" s="12"/>
+      <c r="AC92" s="12"/>
+      <c r="AD92" s="12"/>
+      <c r="AE92" s="12"/>
+      <c r="AF92" s="12"/>
+      <c r="AG92" s="12"/>
+      <c r="AH92" s="12"/>
+      <c r="AI92" s="12"/>
+      <c r="AJ92" s="12"/>
+      <c r="AK92" s="12"/>
+      <c r="AL92" s="12"/>
+      <c r="AM92" s="12"/>
+      <c r="AN92" s="12"/>
+      <c r="AO92" s="12"/>
+      <c r="AP92" s="12"/>
+      <c r="AQ92" s="12"/>
+      <c r="AR92" s="12"/>
+      <c r="AS92" s="12"/>
+      <c r="AT92" s="12"/>
+      <c r="AU92" s="12"/>
+      <c r="AV92" s="12"/>
+      <c r="AW92" s="12"/>
+      <c r="AX92" s="12"/>
+      <c r="AY92" s="12"/>
+      <c r="AZ92" s="12"/>
+      <c r="BA92" s="12"/>
+      <c r="BB92" s="12"/>
+      <c r="BC92" s="12"/>
+      <c r="BD92" s="12"/>
+      <c r="BE92" s="12"/>
+      <c r="BF92" s="12"/>
+      <c r="BG92" s="12"/>
+      <c r="BH92" s="12"/>
+      <c r="BI92" s="12"/>
+      <c r="BJ92" s="12"/>
+      <c r="BK92" s="12"/>
+      <c r="BL92" s="12"/>
+      <c r="BM92" s="12"/>
+      <c r="BN92" s="12"/>
+      <c r="BO92" s="12"/>
+      <c r="BP92" s="12"/>
+      <c r="BQ92" s="12"/>
+    </row>
+    <row r="93" spans="5:69">
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="12"/>
+      <c r="AC93" s="12"/>
+      <c r="AD93" s="12"/>
+      <c r="AE93" s="12"/>
+      <c r="AF93" s="12"/>
+      <c r="AG93" s="12"/>
+      <c r="AH93" s="12"/>
+      <c r="AI93" s="12"/>
+      <c r="AJ93" s="12"/>
+      <c r="AK93" s="12"/>
+      <c r="AL93" s="12"/>
+      <c r="AM93" s="12"/>
+      <c r="AN93" s="12"/>
+      <c r="AO93" s="12"/>
+      <c r="AP93" s="12"/>
+      <c r="AQ93" s="12"/>
+      <c r="AR93" s="12"/>
+      <c r="AS93" s="12"/>
+      <c r="AT93" s="12"/>
+      <c r="AU93" s="12"/>
+      <c r="AV93" s="12"/>
+      <c r="AW93" s="12"/>
+      <c r="AX93" s="12"/>
+      <c r="AY93" s="12"/>
+      <c r="AZ93" s="12"/>
+      <c r="BA93" s="12"/>
+      <c r="BB93" s="12"/>
+      <c r="BC93" s="12"/>
+      <c r="BD93" s="12"/>
+      <c r="BE93" s="12"/>
+      <c r="BF93" s="12"/>
+      <c r="BG93" s="12"/>
+      <c r="BH93" s="12"/>
+      <c r="BI93" s="12"/>
+      <c r="BJ93" s="12"/>
+      <c r="BK93" s="12"/>
+      <c r="BL93" s="12"/>
+      <c r="BM93" s="12"/>
+      <c r="BN93" s="12"/>
+      <c r="BO93" s="12"/>
+      <c r="BP93" s="12"/>
+      <c r="BQ93" s="12"/>
+    </row>
+    <row r="94" spans="5:69">
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="12"/>
+      <c r="AB94" s="12"/>
+      <c r="AC94" s="12"/>
+      <c r="AD94" s="12"/>
+      <c r="AE94" s="12"/>
+      <c r="AF94" s="12"/>
+      <c r="AG94" s="12"/>
+      <c r="AH94" s="12"/>
+      <c r="AI94" s="12"/>
+      <c r="AJ94" s="12"/>
+      <c r="AK94" s="12"/>
+      <c r="AL94" s="12"/>
+      <c r="AM94" s="12"/>
+      <c r="AN94" s="12"/>
+      <c r="AO94" s="12"/>
+      <c r="AP94" s="12"/>
+      <c r="AQ94" s="12"/>
+      <c r="AR94" s="12"/>
+      <c r="AS94" s="12"/>
+      <c r="AT94" s="12"/>
+      <c r="AU94" s="12"/>
+      <c r="AV94" s="12"/>
+      <c r="AW94" s="12"/>
+      <c r="AX94" s="12"/>
+      <c r="AY94" s="12"/>
+      <c r="AZ94" s="12"/>
+      <c r="BA94" s="12"/>
+      <c r="BB94" s="12"/>
+      <c r="BC94" s="12"/>
+      <c r="BD94" s="12"/>
+      <c r="BE94" s="12"/>
+      <c r="BF94" s="12"/>
+      <c r="BG94" s="12"/>
+      <c r="BH94" s="12"/>
+      <c r="BI94" s="12"/>
+      <c r="BJ94" s="12"/>
+      <c r="BK94" s="12"/>
+      <c r="BL94" s="12"/>
+      <c r="BM94" s="12"/>
+      <c r="BN94" s="12"/>
+      <c r="BO94" s="12"/>
+      <c r="BP94" s="12"/>
+      <c r="BQ94" s="12"/>
+    </row>
+    <row r="95" spans="5:69">
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="12"/>
+      <c r="AB95" s="12"/>
+      <c r="AC95" s="12"/>
+      <c r="AD95" s="12"/>
+      <c r="AE95" s="12"/>
+      <c r="AF95" s="12"/>
+      <c r="AG95" s="12"/>
+      <c r="AH95" s="12"/>
+      <c r="AI95" s="12"/>
+      <c r="AJ95" s="12"/>
+      <c r="AK95" s="12"/>
+      <c r="AL95" s="12"/>
+      <c r="AM95" s="12"/>
+      <c r="AN95" s="12"/>
+      <c r="AO95" s="12"/>
+      <c r="AP95" s="12"/>
+      <c r="AQ95" s="12"/>
+      <c r="AR95" s="12"/>
+      <c r="AS95" s="12"/>
+      <c r="AT95" s="12"/>
+      <c r="AU95" s="12"/>
+      <c r="AV95" s="12"/>
+      <c r="AW95" s="12"/>
+      <c r="AX95" s="12"/>
+      <c r="AY95" s="12"/>
+      <c r="AZ95" s="12"/>
+      <c r="BA95" s="12"/>
+      <c r="BB95" s="12"/>
+      <c r="BC95" s="12"/>
+      <c r="BD95" s="12"/>
+      <c r="BE95" s="12"/>
+      <c r="BF95" s="12"/>
+      <c r="BG95" s="12"/>
+      <c r="BH95" s="12"/>
+      <c r="BI95" s="12"/>
+      <c r="BJ95" s="12"/>
+      <c r="BK95" s="12"/>
+      <c r="BL95" s="12"/>
+      <c r="BM95" s="12"/>
+      <c r="BN95" s="12"/>
+      <c r="BO95" s="12"/>
+      <c r="BP95" s="12"/>
+      <c r="BQ95" s="12"/>
+    </row>
+    <row r="96" spans="5:69">
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="12"/>
+      <c r="AC96" s="12"/>
+      <c r="AD96" s="12"/>
+      <c r="AE96" s="12"/>
+      <c r="AF96" s="12"/>
+      <c r="AG96" s="12"/>
+      <c r="AH96" s="12"/>
+      <c r="AI96" s="12"/>
+      <c r="AJ96" s="12"/>
+      <c r="AK96" s="12"/>
+      <c r="AL96" s="12"/>
+      <c r="AM96" s="12"/>
+      <c r="AN96" s="12"/>
+      <c r="AO96" s="12"/>
+      <c r="AP96" s="12"/>
+      <c r="AQ96" s="12"/>
+      <c r="AR96" s="12"/>
+      <c r="AS96" s="12"/>
+      <c r="AT96" s="12"/>
+      <c r="AU96" s="12"/>
+      <c r="AV96" s="12"/>
+      <c r="AW96" s="12"/>
+      <c r="AX96" s="12"/>
+      <c r="AY96" s="12"/>
+      <c r="AZ96" s="12"/>
+      <c r="BA96" s="12"/>
+      <c r="BB96" s="12"/>
+      <c r="BC96" s="12"/>
+      <c r="BD96" s="12"/>
+      <c r="BE96" s="12"/>
+      <c r="BF96" s="12"/>
+      <c r="BG96" s="12"/>
+      <c r="BH96" s="12"/>
+      <c r="BI96" s="12"/>
+      <c r="BJ96" s="12"/>
+      <c r="BK96" s="12"/>
+      <c r="BL96" s="12"/>
+      <c r="BM96" s="12"/>
+      <c r="BN96" s="12"/>
+      <c r="BO96" s="12"/>
+      <c r="BP96" s="12"/>
+      <c r="BQ96" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" display="http://localhost/snorg/query.php?action=GetFriends&amp;owner=0"/>
-    <hyperlink ref="B46" r:id="rId2" display="http://localhost/snorg/pg/photos/album/57/album1"/>
+    <hyperlink ref="B7" r:id="rId1" display="http://localhost/snorg/query.php?action=GetFriends&amp;owner=0"/>
+    <hyperlink ref="B56" r:id="rId2" display="http://localhost/snorg/pg/photos/album/57/album1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId3"/>

--- a/_document/Bug Collectios.xlsx
+++ b/_document/Bug Collectios.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>1. Đưa group vào enable recommendation</t>
   </si>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BQ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4034,7 +4034,9 @@
       <c r="C62" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="12"/>
+      <c r="E62" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>

--- a/_document/Bug Collectios.xlsx
+++ b/_document/Bug Collectios.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BQ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/_document/Bug Collectios.xlsx
+++ b/_document/Bug Collectios.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>1. Đưa group vào enable recommendation</t>
   </si>
@@ -68,7 +68,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -108,7 +108,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -124,7 +124,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,7 +140,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -156,7 +156,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -172,7 +172,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -248,6 +248,15 @@
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>Blog cắt khi tag không tốt</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +266,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -265,14 +274,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -280,7 +289,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -292,7 +301,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +329,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +376,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -414,6 +435,11 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -837,18 +863,18 @@
   <dimension ref="A1:BQ96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="86.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="86.125" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:69" ht="15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -883,178 +909,72 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:69">
-      <c r="A3">
+    <row r="3" spans="1:69" s="27" customFormat="1">
+      <c r="A3" s="27">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:69">
-      <c r="A4">
+      <c r="E3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" s="27" customFormat="1">
+      <c r="A4" s="27">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="12"/>
-      <c r="AZ4" s="12"/>
-      <c r="BA4" s="12"/>
-      <c r="BB4" s="12"/>
-      <c r="BC4" s="12"/>
-      <c r="BD4" s="12"/>
-      <c r="BE4" s="12"/>
-      <c r="BF4" s="12"/>
-      <c r="BG4" s="12"/>
-      <c r="BH4" s="12"/>
-      <c r="BI4" s="12"/>
-      <c r="BJ4" s="12"/>
-      <c r="BK4" s="12"/>
-      <c r="BL4" s="12"/>
-      <c r="BM4" s="12"/>
-      <c r="BN4" s="12"/>
-      <c r="BO4" s="12"/>
-      <c r="BP4" s="12"/>
-      <c r="BQ4" s="12"/>
-    </row>
-    <row r="5" spans="1:69">
-      <c r="A5">
+      <c r="E4" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69" s="27" customFormat="1">
+      <c r="A5" s="27">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
-      <c r="BH5" s="12"/>
-      <c r="BI5" s="12"/>
-      <c r="BJ5" s="12"/>
-      <c r="BK5" s="12"/>
-      <c r="BL5" s="12"/>
-      <c r="BM5" s="12"/>
-      <c r="BN5" s="12"/>
-      <c r="BO5" s="12"/>
-      <c r="BP5" s="12"/>
-      <c r="BQ5" s="12"/>
-    </row>
-    <row r="6" spans="1:69" s="12" customFormat="1">
-      <c r="A6" s="12">
+      <c r="E5" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69" s="27" customFormat="1">
+      <c r="A6" s="27">
         <v>4.2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="28" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:69">
+      <c r="E6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69" ht="15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2782,7 +2702,7 @@
       <c r="BP43" s="12"/>
       <c r="BQ43" s="12"/>
     </row>
-    <row r="44" spans="1:69" s="14" customFormat="1">
+    <row r="44" spans="1:69" s="14" customFormat="1" ht="15">
       <c r="A44"/>
       <c r="B44" s="4" t="s">
         <v>14</v>
@@ -3495,7 +3415,7 @@
       <c r="BP53" s="12"/>
       <c r="BQ53" s="12"/>
     </row>
-    <row r="54" spans="1:69">
+    <row r="54" spans="1:69" ht="15">
       <c r="B54" s="5"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -3636,7 +3556,7 @@
       <c r="BP55" s="12"/>
       <c r="BQ55" s="12"/>
     </row>
-    <row r="56" spans="1:69">
+    <row r="56" spans="1:69" ht="15">
       <c r="A56">
         <v>14.1</v>
       </c>
@@ -4034,9 +3954,7 @@
       <c r="C62" t="s">
         <v>39</v>
       </c>
-      <c r="E62" s="11" t="s">
-        <v>46</v>
-      </c>
+      <c r="E62" s="12"/>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
@@ -4323,7 +4241,7 @@
       <c r="BP65" s="22"/>
       <c r="BQ65" s="22"/>
     </row>
-    <row r="66" spans="1:69">
+    <row r="66" spans="1:69" ht="15">
       <c r="B66" s="1" t="s">
         <v>23</v>
       </c>
@@ -4399,7 +4317,7 @@
       <c r="BP66" s="12"/>
       <c r="BQ66" s="12"/>
     </row>
-    <row r="67" spans="1:69" s="23" customFormat="1">
+    <row r="67" spans="1:69" s="23" customFormat="1" ht="15">
       <c r="A67"/>
       <c r="B67" s="1" t="s">
         <v>24</v>
@@ -4470,7 +4388,7 @@
       <c r="BP67" s="25"/>
       <c r="BQ67" s="25"/>
     </row>
-    <row r="68" spans="1:69">
+    <row r="68" spans="1:69" ht="15">
       <c r="B68" s="1" t="s">
         <v>25</v>
       </c>
@@ -4540,7 +4458,7 @@
       <c r="BP68" s="12"/>
       <c r="BQ68" s="12"/>
     </row>
-    <row r="69" spans="1:69">
+    <row r="69" spans="1:69" ht="15">
       <c r="B69" s="7" t="s">
         <v>26</v>
       </c>
@@ -4610,7 +4528,7 @@
       <c r="BP69" s="12"/>
       <c r="BQ69" s="12"/>
     </row>
-    <row r="70" spans="1:69">
+    <row r="70" spans="1:69" ht="15">
       <c r="B70" s="7" t="s">
         <v>27</v>
       </c>
@@ -5082,72 +5000,10 @@
       <c r="BP76" s="12"/>
       <c r="BQ76" s="12"/>
     </row>
-    <row r="77" spans="1:69">
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12"/>
-      <c r="T77" s="12"/>
-      <c r="U77" s="12"/>
-      <c r="V77" s="12"/>
-      <c r="W77" s="12"/>
-      <c r="X77" s="12"/>
-      <c r="Y77" s="12"/>
-      <c r="Z77" s="12"/>
-      <c r="AA77" s="12"/>
-      <c r="AB77" s="12"/>
-      <c r="AC77" s="12"/>
-      <c r="AD77" s="12"/>
-      <c r="AE77" s="12"/>
-      <c r="AF77" s="12"/>
-      <c r="AG77" s="12"/>
-      <c r="AH77" s="12"/>
-      <c r="AI77" s="12"/>
-      <c r="AJ77" s="12"/>
-      <c r="AK77" s="12"/>
-      <c r="AL77" s="12"/>
-      <c r="AM77" s="12"/>
-      <c r="AN77" s="12"/>
-      <c r="AO77" s="12"/>
-      <c r="AP77" s="12"/>
-      <c r="AQ77" s="12"/>
-      <c r="AR77" s="12"/>
-      <c r="AS77" s="12"/>
-      <c r="AT77" s="12"/>
-      <c r="AU77" s="12"/>
-      <c r="AV77" s="12"/>
-      <c r="AW77" s="12"/>
-      <c r="AX77" s="12"/>
-      <c r="AY77" s="12"/>
-      <c r="AZ77" s="12"/>
-      <c r="BA77" s="12"/>
-      <c r="BB77" s="12"/>
-      <c r="BC77" s="12"/>
-      <c r="BD77" s="12"/>
-      <c r="BE77" s="12"/>
-      <c r="BF77" s="12"/>
-      <c r="BG77" s="12"/>
-      <c r="BH77" s="12"/>
-      <c r="BI77" s="12"/>
-      <c r="BJ77" s="12"/>
-      <c r="BK77" s="12"/>
-      <c r="BL77" s="12"/>
-      <c r="BM77" s="12"/>
-      <c r="BN77" s="12"/>
-      <c r="BO77" s="12"/>
-      <c r="BP77" s="12"/>
-      <c r="BQ77" s="12"/>
+    <row r="77" spans="1:69" s="26" customFormat="1">
+      <c r="B77" s="26" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="78" spans="1:69">
       <c r="E78" s="12"/>
@@ -6439,7 +6295,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6451,7 +6307,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_document/Bug Collectios.xlsx
+++ b/_document/Bug Collectios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>1. Đưa group vào enable recommendation</t>
   </si>
@@ -376,7 +376,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -439,6 +439,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -863,7 +869,7 @@
   <dimension ref="A1:BQ96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1222,309 +1228,73 @@
       <c r="BP11" s="12"/>
       <c r="BQ11" s="12"/>
     </row>
-    <row r="12" spans="1:69">
-      <c r="A12">
+    <row r="12" spans="1:69" s="11" customFormat="1">
+      <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="12"/>
-      <c r="AR12" s="12"/>
-      <c r="AS12" s="12"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="12"/>
-      <c r="AV12" s="12"/>
-      <c r="AW12" s="12"/>
-      <c r="AX12" s="12"/>
-      <c r="AY12" s="12"/>
-      <c r="AZ12" s="12"/>
-      <c r="BA12" s="12"/>
-      <c r="BB12" s="12"/>
-      <c r="BC12" s="12"/>
-      <c r="BD12" s="12"/>
-      <c r="BE12" s="12"/>
-      <c r="BF12" s="12"/>
-      <c r="BG12" s="12"/>
-      <c r="BH12" s="12"/>
-      <c r="BI12" s="12"/>
-      <c r="BJ12" s="12"/>
-      <c r="BK12" s="12"/>
-      <c r="BL12" s="12"/>
-      <c r="BM12" s="12"/>
-      <c r="BN12" s="12"/>
-      <c r="BO12" s="12"/>
-      <c r="BP12" s="12"/>
-      <c r="BQ12" s="12"/>
-    </row>
-    <row r="13" spans="1:69">
-      <c r="A13">
+      <c r="E12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" s="11" customFormat="1">
+      <c r="A13" s="11">
         <v>9.1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
-      <c r="AN13" s="12"/>
-      <c r="AO13" s="12"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="12"/>
-      <c r="AR13" s="12"/>
-      <c r="AS13" s="12"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
-      <c r="AV13" s="12"/>
-      <c r="AW13" s="12"/>
-      <c r="AX13" s="12"/>
-      <c r="AY13" s="12"/>
-      <c r="AZ13" s="12"/>
-      <c r="BA13" s="12"/>
-      <c r="BB13" s="12"/>
-      <c r="BC13" s="12"/>
-      <c r="BD13" s="12"/>
-      <c r="BE13" s="12"/>
-      <c r="BF13" s="12"/>
-      <c r="BG13" s="12"/>
-      <c r="BH13" s="12"/>
-      <c r="BI13" s="12"/>
-      <c r="BJ13" s="12"/>
-      <c r="BK13" s="12"/>
-      <c r="BL13" s="12"/>
-      <c r="BM13" s="12"/>
-      <c r="BN13" s="12"/>
-      <c r="BO13" s="12"/>
-      <c r="BP13" s="12"/>
-      <c r="BQ13" s="12"/>
-    </row>
-    <row r="14" spans="1:69">
-      <c r="A14">
+      <c r="E13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" s="11" customFormat="1">
+      <c r="A14" s="11">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="12"/>
-      <c r="AV14" s="12"/>
-      <c r="AW14" s="12"/>
-      <c r="AX14" s="12"/>
-      <c r="AY14" s="12"/>
-      <c r="AZ14" s="12"/>
-      <c r="BA14" s="12"/>
-      <c r="BB14" s="12"/>
-      <c r="BC14" s="12"/>
-      <c r="BD14" s="12"/>
-      <c r="BE14" s="12"/>
-      <c r="BF14" s="12"/>
-      <c r="BG14" s="12"/>
-      <c r="BH14" s="12"/>
-      <c r="BI14" s="12"/>
-      <c r="BJ14" s="12"/>
-      <c r="BK14" s="12"/>
-      <c r="BL14" s="12"/>
-      <c r="BM14" s="12"/>
-      <c r="BN14" s="12"/>
-      <c r="BO14" s="12"/>
-      <c r="BP14" s="12"/>
-      <c r="BQ14" s="12"/>
-    </row>
-    <row r="15" spans="1:69">
-      <c r="A15">
+      <c r="E14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69" s="11" customFormat="1">
+      <c r="A15" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="12"/>
-      <c r="AV15" s="12"/>
-      <c r="AW15" s="12"/>
-      <c r="AX15" s="12"/>
-      <c r="AY15" s="12"/>
-      <c r="AZ15" s="12"/>
-      <c r="BA15" s="12"/>
-      <c r="BB15" s="12"/>
-      <c r="BC15" s="12"/>
-      <c r="BD15" s="12"/>
-      <c r="BE15" s="12"/>
-      <c r="BF15" s="12"/>
-      <c r="BG15" s="12"/>
-      <c r="BH15" s="12"/>
-      <c r="BI15" s="12"/>
-      <c r="BJ15" s="12"/>
-      <c r="BK15" s="12"/>
-      <c r="BL15" s="12"/>
-      <c r="BM15" s="12"/>
-      <c r="BN15" s="12"/>
-      <c r="BO15" s="12"/>
-      <c r="BP15" s="12"/>
-      <c r="BQ15" s="12"/>
+      <c r="E15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:69">
       <c r="A16">

--- a/_document/Bug Collectios.xlsx
+++ b/_document/Bug Collectios.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
   <si>
     <t>1. Đưa group vào enable recommendation</t>
   </si>
@@ -256,6 +256,75 @@
   </si>
   <si>
     <t>Fixed</t>
+  </si>
+  <si>
+    <t>Các thành phần notification &amp; wall post</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>wall post</t>
+  </si>
+  <si>
+    <t>Add friends</t>
+  </si>
+  <si>
+    <t>Tag photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    notify khi add</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   notify khi approve</t>
+  </si>
+  <si>
+    <t>notify khi tag photo</t>
+  </si>
+  <si>
+    <t>notify khi có người comment trên 1 bức ảnh có mình bên trong hoặc mình là chủ bức ảnh</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topic comment okie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Notify cho những người đã comment trong topic đó khi có ng cm tiếp bên dưới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Notify cho chủ topic khi có người cm</t>
+  </si>
+  <si>
+    <t>Invite to Group</t>
+  </si>
+  <si>
+    <t>notify khi accepted invitation</t>
+  </si>
+  <si>
+    <t>notify cho chủ nhóm khi một người join vào 1 nhóm thành công</t>
+  </si>
+  <si>
+    <t>notify cho chủ nhóm khi một người request để được vào nhóm</t>
+  </si>
+  <si>
+    <t>notify cho người request khi đã được chấp nhận</t>
+  </si>
+  <si>
+    <t>Hệ thống comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Notify cho người chủ topic biết khi có người comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Notify cho tất cả những người đã comment bên trên khi có cm mới</t>
+  </si>
+  <si>
+    <t>Notify khi viết testimony</t>
+  </si>
+  <si>
+    <t>Notify khi tag user( blog , poll)</t>
   </si>
 </sst>
 </file>
@@ -866,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ96"/>
+  <dimension ref="A1:BQ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4976,7 +5045,7 @@
       <c r="BP80" s="12"/>
       <c r="BQ80" s="12"/>
     </row>
-    <row r="81" spans="5:69">
+    <row r="81" spans="2:69">
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="12"/>
@@ -5043,7 +5112,13 @@
       <c r="BP81" s="12"/>
       <c r="BQ81" s="12"/>
     </row>
-    <row r="82" spans="5:69">
+    <row r="82" spans="2:69">
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" t="s">
+        <v>56</v>
+      </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
       <c r="G82" s="12"/>
@@ -5110,7 +5185,10 @@
       <c r="BP82" s="12"/>
       <c r="BQ82" s="12"/>
     </row>
-    <row r="83" spans="5:69">
+    <row r="83" spans="2:69">
+      <c r="B83" t="s">
+        <v>54</v>
+      </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
@@ -5177,7 +5255,10 @@
       <c r="BP83" s="12"/>
       <c r="BQ83" s="12"/>
     </row>
-    <row r="84" spans="5:69">
+    <row r="84" spans="2:69">
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
@@ -5244,7 +5325,13 @@
       <c r="BP84" s="12"/>
       <c r="BQ84" s="12"/>
     </row>
-    <row r="85" spans="5:69">
+    <row r="85" spans="2:69">
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" t="s">
+        <v>52</v>
+      </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
@@ -5311,7 +5398,16 @@
       <c r="BP85" s="12"/>
       <c r="BQ85" s="12"/>
     </row>
-    <row r="86" spans="5:69">
+    <row r="86" spans="2:69">
+      <c r="B86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D86" t="s">
+        <v>52</v>
+      </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
@@ -5378,7 +5474,10 @@
       <c r="BP86" s="12"/>
       <c r="BQ86" s="12"/>
     </row>
-    <row r="87" spans="5:69">
+    <row r="87" spans="2:69">
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
@@ -5445,7 +5544,16 @@
       <c r="BP87" s="12"/>
       <c r="BQ87" s="12"/>
     </row>
-    <row r="88" spans="5:69">
+    <row r="88" spans="2:69">
+      <c r="B88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" t="s">
+        <v>52</v>
+      </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
@@ -5512,7 +5620,13 @@
       <c r="BP88" s="12"/>
       <c r="BQ88" s="12"/>
     </row>
-    <row r="89" spans="5:69">
+    <row r="89" spans="2:69">
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" t="s">
+        <v>52</v>
+      </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
@@ -5579,7 +5693,7 @@
       <c r="BP89" s="12"/>
       <c r="BQ89" s="12"/>
     </row>
-    <row r="90" spans="5:69">
+    <row r="90" spans="2:69">
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
@@ -5646,7 +5760,10 @@
       <c r="BP90" s="12"/>
       <c r="BQ90" s="12"/>
     </row>
-    <row r="91" spans="5:69">
+    <row r="91" spans="2:69">
+      <c r="B91" t="s">
+        <v>63</v>
+      </c>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
@@ -5713,7 +5830,10 @@
       <c r="BP91" s="12"/>
       <c r="BQ91" s="12"/>
     </row>
-    <row r="92" spans="5:69">
+    <row r="92" spans="2:69">
+      <c r="B92" t="s">
+        <v>64</v>
+      </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
@@ -5780,7 +5900,13 @@
       <c r="BP92" s="12"/>
       <c r="BQ92" s="12"/>
     </row>
-    <row r="93" spans="5:69">
+    <row r="93" spans="2:69">
+      <c r="B93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" t="s">
+        <v>52</v>
+      </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
@@ -5847,7 +5973,13 @@
       <c r="BP93" s="12"/>
       <c r="BQ93" s="12"/>
     </row>
-    <row r="94" spans="5:69">
+    <row r="94" spans="2:69">
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" t="s">
+        <v>52</v>
+      </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
@@ -5914,7 +6046,7 @@
       <c r="BP94" s="12"/>
       <c r="BQ94" s="12"/>
     </row>
-    <row r="95" spans="5:69">
+    <row r="95" spans="2:69">
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
@@ -5981,7 +6113,13 @@
       <c r="BP95" s="12"/>
       <c r="BQ95" s="12"/>
     </row>
-    <row r="96" spans="5:69">
+    <row r="96" spans="2:69">
+      <c r="B96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" t="s">
+        <v>52</v>
+      </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
       <c r="G96" s="12"/>
@@ -6048,6 +6186,210 @@
       <c r="BP96" s="12"/>
       <c r="BQ96" s="12"/>
     </row>
+    <row r="97" spans="2:69">
+      <c r="B97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="12"/>
+      <c r="AC97" s="12"/>
+      <c r="AD97" s="12"/>
+      <c r="AE97" s="12"/>
+      <c r="AF97" s="12"/>
+      <c r="AG97" s="12"/>
+      <c r="AH97" s="12"/>
+      <c r="AI97" s="12"/>
+      <c r="AJ97" s="12"/>
+      <c r="AK97" s="12"/>
+      <c r="AL97" s="12"/>
+      <c r="AM97" s="12"/>
+      <c r="AN97" s="12"/>
+      <c r="AO97" s="12"/>
+      <c r="AP97" s="12"/>
+      <c r="AQ97" s="12"/>
+      <c r="AR97" s="12"/>
+      <c r="AS97" s="12"/>
+      <c r="AT97" s="12"/>
+      <c r="AU97" s="12"/>
+      <c r="AV97" s="12"/>
+      <c r="AW97" s="12"/>
+      <c r="AX97" s="12"/>
+      <c r="AY97" s="12"/>
+      <c r="AZ97" s="12"/>
+      <c r="BA97" s="12"/>
+      <c r="BB97" s="12"/>
+      <c r="BC97" s="12"/>
+      <c r="BD97" s="12"/>
+      <c r="BE97" s="12"/>
+      <c r="BF97" s="12"/>
+      <c r="BG97" s="12"/>
+      <c r="BH97" s="12"/>
+      <c r="BI97" s="12"/>
+      <c r="BJ97" s="12"/>
+      <c r="BK97" s="12"/>
+      <c r="BL97" s="12"/>
+      <c r="BM97" s="12"/>
+      <c r="BN97" s="12"/>
+      <c r="BO97" s="12"/>
+      <c r="BP97" s="12"/>
+      <c r="BQ97" s="12"/>
+    </row>
+    <row r="98" spans="2:69">
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12"/>
+      <c r="AC98" s="12"/>
+      <c r="AD98" s="12"/>
+      <c r="AE98" s="12"/>
+      <c r="AF98" s="12"/>
+      <c r="AG98" s="12"/>
+      <c r="AH98" s="12"/>
+      <c r="AI98" s="12"/>
+      <c r="AJ98" s="12"/>
+      <c r="AK98" s="12"/>
+      <c r="AL98" s="12"/>
+      <c r="AM98" s="12"/>
+      <c r="AN98" s="12"/>
+      <c r="AO98" s="12"/>
+      <c r="AP98" s="12"/>
+      <c r="AQ98" s="12"/>
+      <c r="AR98" s="12"/>
+      <c r="AS98" s="12"/>
+      <c r="AT98" s="12"/>
+      <c r="AU98" s="12"/>
+      <c r="AV98" s="12"/>
+      <c r="AW98" s="12"/>
+      <c r="AX98" s="12"/>
+      <c r="AY98" s="12"/>
+      <c r="AZ98" s="12"/>
+      <c r="BA98" s="12"/>
+      <c r="BB98" s="12"/>
+      <c r="BC98" s="12"/>
+      <c r="BD98" s="12"/>
+      <c r="BE98" s="12"/>
+      <c r="BF98" s="12"/>
+      <c r="BG98" s="12"/>
+      <c r="BH98" s="12"/>
+      <c r="BI98" s="12"/>
+      <c r="BJ98" s="12"/>
+      <c r="BK98" s="12"/>
+      <c r="BL98" s="12"/>
+      <c r="BM98" s="12"/>
+      <c r="BN98" s="12"/>
+      <c r="BO98" s="12"/>
+      <c r="BP98" s="12"/>
+      <c r="BQ98" s="12"/>
+    </row>
+    <row r="99" spans="2:69">
+      <c r="B99" t="s">
+        <v>69</v>
+      </c>
+      <c r="C99" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="2:69">
+      <c r="B100" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="2:69">
+      <c r="B101" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="2:69">
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="2:69">
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C105" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="2:69">
+      <c r="B106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="2:69">
+      <c r="B109" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="2:69">
+      <c r="B111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="http://localhost/snorg/query.php?action=GetFriends&amp;owner=0"/>

--- a/_document/Bug Collectios.xlsx
+++ b/_document/Bug Collectios.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -68,7 +68,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -108,7 +108,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -124,7 +124,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,7 +140,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -156,7 +156,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -172,7 +172,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -335,7 +335,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -343,14 +343,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -358,7 +358,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -937,19 +937,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BQ111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="86.125" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="86.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="15">
+    <row r="1" spans="1:69">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:69" ht="15">
+    <row r="7" spans="1:69">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2541,7 +2541,7 @@
       <c r="BP43" s="12"/>
       <c r="BQ43" s="12"/>
     </row>
-    <row r="44" spans="1:69" s="14" customFormat="1" ht="15">
+    <row r="44" spans="1:69" s="14" customFormat="1">
       <c r="A44"/>
       <c r="B44" s="4" t="s">
         <v>14</v>
@@ -3254,7 +3254,7 @@
       <c r="BP53" s="12"/>
       <c r="BQ53" s="12"/>
     </row>
-    <row r="54" spans="1:69" ht="15">
+    <row r="54" spans="1:69">
       <c r="B54" s="5"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -3395,7 +3395,7 @@
       <c r="BP55" s="12"/>
       <c r="BQ55" s="12"/>
     </row>
-    <row r="56" spans="1:69" ht="15">
+    <row r="56" spans="1:69">
       <c r="A56">
         <v>14.1</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="BP65" s="22"/>
       <c r="BQ65" s="22"/>
     </row>
-    <row r="66" spans="1:69" ht="15">
+    <row r="66" spans="1:69">
       <c r="B66" s="1" t="s">
         <v>23</v>
       </c>
@@ -4156,7 +4156,7 @@
       <c r="BP66" s="12"/>
       <c r="BQ66" s="12"/>
     </row>
-    <row r="67" spans="1:69" s="23" customFormat="1" ht="15">
+    <row r="67" spans="1:69" s="23" customFormat="1">
       <c r="A67"/>
       <c r="B67" s="1" t="s">
         <v>24</v>
@@ -4227,7 +4227,7 @@
       <c r="BP67" s="25"/>
       <c r="BQ67" s="25"/>
     </row>
-    <row r="68" spans="1:69" ht="15">
+    <row r="68" spans="1:69">
       <c r="B68" s="1" t="s">
         <v>25</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="BP68" s="12"/>
       <c r="BQ68" s="12"/>
     </row>
-    <row r="69" spans="1:69" ht="15">
+    <row r="69" spans="1:69">
       <c r="B69" s="7" t="s">
         <v>26</v>
       </c>
@@ -4367,7 +4367,7 @@
       <c r="BP69" s="12"/>
       <c r="BQ69" s="12"/>
     </row>
-    <row r="70" spans="1:69" ht="15">
+    <row r="70" spans="1:69">
       <c r="B70" s="7" t="s">
         <v>27</v>
       </c>
@@ -6407,7 +6407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6419,7 +6419,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_document/Bug Collectios.xlsx
+++ b/_document/Bug Collectios.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
   <si>
     <t>1. Đưa group vào enable recommendation</t>
   </si>
@@ -68,7 +68,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -108,7 +108,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -124,7 +124,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,7 +140,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -156,7 +156,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -172,7 +172,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -326,16 +326,25 @@
   <si>
     <t>Notify khi tag user( blog , poll)</t>
   </si>
+  <si>
+    <t>Thiếu wall post</t>
+  </si>
+  <si>
+    <t>csd</t>
+  </si>
+  <si>
+    <t>fdfdsf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -343,14 +352,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -358,7 +367,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -368,6 +377,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -445,7 +460,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -487,9 +502,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -515,6 +527,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -935,21 +951,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ111"/>
+  <dimension ref="A1:BQ112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="86.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="86.125" customWidth="1"/>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:69" ht="15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -984,72 +1000,72 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:69" s="27" customFormat="1">
-      <c r="A3" s="27">
+    <row r="3" spans="1:69" s="26" customFormat="1">
+      <c r="A3" s="26">
         <v>3</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="27" customFormat="1">
-      <c r="A4" s="27">
+    <row r="4" spans="1:69" s="26" customFormat="1">
+      <c r="A4" s="26">
         <v>4</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:69" s="27" customFormat="1">
-      <c r="A5" s="27">
+    <row r="5" spans="1:69" s="26" customFormat="1">
+      <c r="A5" s="26">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:69" s="27" customFormat="1">
-      <c r="A6" s="27">
+    <row r="6" spans="1:69" s="26" customFormat="1">
+      <c r="A6" s="26">
         <v>4.2</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:69" ht="15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1301,7 +1317,7 @@
       <c r="A12" s="11">
         <v>9</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1318,7 +1334,7 @@
       <c r="A13" s="11">
         <v>9.1</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1335,7 +1351,7 @@
       <c r="A14" s="11">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1352,7 +1368,7 @@
       <c r="A15" s="11">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -2541,7 +2557,7 @@
       <c r="BP43" s="12"/>
       <c r="BQ43" s="12"/>
     </row>
-    <row r="44" spans="1:69" s="14" customFormat="1">
+    <row r="44" spans="1:69" s="14" customFormat="1" ht="15">
       <c r="A44"/>
       <c r="B44" s="4" t="s">
         <v>14</v>
@@ -3254,7 +3270,7 @@
       <c r="BP53" s="12"/>
       <c r="BQ53" s="12"/>
     </row>
-    <row r="54" spans="1:69">
+    <row r="54" spans="1:69" ht="15">
       <c r="B54" s="5"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -3395,7 +3411,7 @@
       <c r="BP55" s="12"/>
       <c r="BQ55" s="12"/>
     </row>
-    <row r="56" spans="1:69">
+    <row r="56" spans="1:69" ht="15">
       <c r="A56">
         <v>14.1</v>
       </c>
@@ -3544,81 +3560,16 @@
       <c r="BP57" s="12"/>
       <c r="BQ57" s="12"/>
     </row>
-    <row r="58" spans="1:69">
-      <c r="A58" s="14">
+    <row r="58" spans="1:69" s="26" customFormat="1">
+      <c r="A58" s="26">
         <v>15</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="12"/>
-      <c r="AB58" s="12"/>
-      <c r="AC58" s="12"/>
-      <c r="AD58" s="12"/>
-      <c r="AE58" s="12"/>
-      <c r="AF58" s="12"/>
-      <c r="AG58" s="12"/>
-      <c r="AH58" s="12"/>
-      <c r="AI58" s="12"/>
-      <c r="AJ58" s="12"/>
-      <c r="AK58" s="12"/>
-      <c r="AL58" s="12"/>
-      <c r="AM58" s="12"/>
-      <c r="AN58" s="12"/>
-      <c r="AO58" s="12"/>
-      <c r="AP58" s="12"/>
-      <c r="AQ58" s="12"/>
-      <c r="AR58" s="12"/>
-      <c r="AS58" s="12"/>
-      <c r="AT58" s="12"/>
-      <c r="AU58" s="12"/>
-      <c r="AV58" s="12"/>
-      <c r="AW58" s="12"/>
-      <c r="AX58" s="12"/>
-      <c r="AY58" s="12"/>
-      <c r="AZ58" s="12"/>
-      <c r="BA58" s="12"/>
-      <c r="BB58" s="12"/>
-      <c r="BC58" s="12"/>
-      <c r="BD58" s="12"/>
-      <c r="BE58" s="12"/>
-      <c r="BF58" s="12"/>
-      <c r="BG58" s="12"/>
-      <c r="BH58" s="12"/>
-      <c r="BI58" s="12"/>
-      <c r="BJ58" s="12"/>
-      <c r="BK58" s="12"/>
-      <c r="BL58" s="12"/>
-      <c r="BM58" s="12"/>
-      <c r="BN58" s="12"/>
-      <c r="BO58" s="12"/>
-      <c r="BP58" s="12"/>
-      <c r="BQ58" s="12"/>
     </row>
     <row r="59" spans="1:69" s="12" customFormat="1">
       <c r="A59" s="12">
@@ -3704,11 +3655,11 @@
       <c r="BP60" s="12"/>
       <c r="BQ60" s="12"/>
     </row>
-    <row r="61" spans="1:69" s="18" customFormat="1">
+    <row r="61" spans="1:69" s="17" customFormat="1">
       <c r="A61" s="14">
         <v>17.100000000000001</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C61" s="12"/>
@@ -3787,7 +3738,7 @@
       <c r="A62" s="14">
         <v>17.2</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C62" t="s">
@@ -3860,10 +3811,10 @@
       <c r="BQ62" s="12"/>
     </row>
     <row r="63" spans="1:69" s="14" customFormat="1">
-      <c r="A63" s="20">
+      <c r="A63" s="19">
         <v>18</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="20" t="s">
         <v>49</v>
       </c>
       <c r="E63" s="12"/>
@@ -4005,82 +3956,82 @@
       <c r="BP64" s="12"/>
       <c r="BQ64" s="12"/>
     </row>
-    <row r="65" spans="1:69" s="20" customFormat="1">
-      <c r="A65" s="23"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="20" t="s">
+    <row r="65" spans="1:69" s="19" customFormat="1">
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-      <c r="R65" s="22"/>
-      <c r="S65" s="22"/>
-      <c r="T65" s="22"/>
-      <c r="U65" s="22"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="22"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="22"/>
-      <c r="Z65" s="22"/>
-      <c r="AA65" s="22"/>
-      <c r="AB65" s="22"/>
-      <c r="AC65" s="22"/>
-      <c r="AD65" s="22"/>
-      <c r="AE65" s="22"/>
-      <c r="AF65" s="22"/>
-      <c r="AG65" s="22"/>
-      <c r="AH65" s="22"/>
-      <c r="AI65" s="22"/>
-      <c r="AJ65" s="22"/>
-      <c r="AK65" s="22"/>
-      <c r="AL65" s="22"/>
-      <c r="AM65" s="22"/>
-      <c r="AN65" s="22"/>
-      <c r="AO65" s="22"/>
-      <c r="AP65" s="22"/>
-      <c r="AQ65" s="22"/>
-      <c r="AR65" s="22"/>
-      <c r="AS65" s="22"/>
-      <c r="AT65" s="22"/>
-      <c r="AU65" s="22"/>
-      <c r="AV65" s="22"/>
-      <c r="AW65" s="22"/>
-      <c r="AX65" s="22"/>
-      <c r="AY65" s="22"/>
-      <c r="AZ65" s="22"/>
-      <c r="BA65" s="22"/>
-      <c r="BB65" s="22"/>
-      <c r="BC65" s="22"/>
-      <c r="BD65" s="22"/>
-      <c r="BE65" s="22"/>
-      <c r="BF65" s="22"/>
-      <c r="BG65" s="22"/>
-      <c r="BH65" s="22"/>
-      <c r="BI65" s="22"/>
-      <c r="BJ65" s="22"/>
-      <c r="BK65" s="22"/>
-      <c r="BL65" s="22"/>
-      <c r="BM65" s="22"/>
-      <c r="BN65" s="22"/>
-      <c r="BO65" s="22"/>
-      <c r="BP65" s="22"/>
-      <c r="BQ65" s="22"/>
-    </row>
-    <row r="66" spans="1:69">
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="21"/>
+      <c r="U65" s="21"/>
+      <c r="V65" s="21"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="21"/>
+      <c r="AC65" s="21"/>
+      <c r="AD65" s="21"/>
+      <c r="AE65" s="21"/>
+      <c r="AF65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AH65" s="21"/>
+      <c r="AI65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AK65" s="21"/>
+      <c r="AL65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AN65" s="21"/>
+      <c r="AO65" s="21"/>
+      <c r="AP65" s="21"/>
+      <c r="AQ65" s="21"/>
+      <c r="AR65" s="21"/>
+      <c r="AS65" s="21"/>
+      <c r="AT65" s="21"/>
+      <c r="AU65" s="21"/>
+      <c r="AV65" s="21"/>
+      <c r="AW65" s="21"/>
+      <c r="AX65" s="21"/>
+      <c r="AY65" s="21"/>
+      <c r="AZ65" s="21"/>
+      <c r="BA65" s="21"/>
+      <c r="BB65" s="21"/>
+      <c r="BC65" s="21"/>
+      <c r="BD65" s="21"/>
+      <c r="BE65" s="21"/>
+      <c r="BF65" s="21"/>
+      <c r="BG65" s="21"/>
+      <c r="BH65" s="21"/>
+      <c r="BI65" s="21"/>
+      <c r="BJ65" s="21"/>
+      <c r="BK65" s="21"/>
+      <c r="BL65" s="21"/>
+      <c r="BM65" s="21"/>
+      <c r="BN65" s="21"/>
+      <c r="BO65" s="21"/>
+      <c r="BP65" s="21"/>
+      <c r="BQ65" s="21"/>
+    </row>
+    <row r="66" spans="1:69" ht="15">
       <c r="B66" s="1" t="s">
         <v>23</v>
       </c>
@@ -4156,78 +4107,78 @@
       <c r="BP66" s="12"/>
       <c r="BQ66" s="12"/>
     </row>
-    <row r="67" spans="1:69" s="23" customFormat="1">
+    <row r="67" spans="1:69" s="22" customFormat="1" ht="15">
       <c r="A67"/>
       <c r="B67" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="25"/>
-      <c r="V67" s="25"/>
-      <c r="W67" s="25"/>
-      <c r="X67" s="25"/>
-      <c r="Y67" s="25"/>
-      <c r="Z67" s="25"/>
-      <c r="AA67" s="25"/>
-      <c r="AB67" s="25"/>
-      <c r="AC67" s="25"/>
-      <c r="AD67" s="25"/>
-      <c r="AE67" s="25"/>
-      <c r="AF67" s="25"/>
-      <c r="AG67" s="25"/>
-      <c r="AH67" s="25"/>
-      <c r="AI67" s="25"/>
-      <c r="AJ67" s="25"/>
-      <c r="AK67" s="25"/>
-      <c r="AL67" s="25"/>
-      <c r="AM67" s="25"/>
-      <c r="AN67" s="25"/>
-      <c r="AO67" s="25"/>
-      <c r="AP67" s="25"/>
-      <c r="AQ67" s="25"/>
-      <c r="AR67" s="25"/>
-      <c r="AS67" s="25"/>
-      <c r="AT67" s="25"/>
-      <c r="AU67" s="25"/>
-      <c r="AV67" s="25"/>
-      <c r="AW67" s="25"/>
-      <c r="AX67" s="25"/>
-      <c r="AY67" s="25"/>
-      <c r="AZ67" s="25"/>
-      <c r="BA67" s="25"/>
-      <c r="BB67" s="25"/>
-      <c r="BC67" s="25"/>
-      <c r="BD67" s="25"/>
-      <c r="BE67" s="25"/>
-      <c r="BF67" s="25"/>
-      <c r="BG67" s="25"/>
-      <c r="BH67" s="25"/>
-      <c r="BI67" s="25"/>
-      <c r="BJ67" s="25"/>
-      <c r="BK67" s="25"/>
-      <c r="BL67" s="25"/>
-      <c r="BM67" s="25"/>
-      <c r="BN67" s="25"/>
-      <c r="BO67" s="25"/>
-      <c r="BP67" s="25"/>
-      <c r="BQ67" s="25"/>
-    </row>
-    <row r="68" spans="1:69">
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="24"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="24"/>
+      <c r="AA67" s="24"/>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+      <c r="AF67" s="24"/>
+      <c r="AG67" s="24"/>
+      <c r="AH67" s="24"/>
+      <c r="AI67" s="24"/>
+      <c r="AJ67" s="24"/>
+      <c r="AK67" s="24"/>
+      <c r="AL67" s="24"/>
+      <c r="AM67" s="24"/>
+      <c r="AN67" s="24"/>
+      <c r="AO67" s="24"/>
+      <c r="AP67" s="24"/>
+      <c r="AQ67" s="24"/>
+      <c r="AR67" s="24"/>
+      <c r="AS67" s="24"/>
+      <c r="AT67" s="24"/>
+      <c r="AU67" s="24"/>
+      <c r="AV67" s="24"/>
+      <c r="AW67" s="24"/>
+      <c r="AX67" s="24"/>
+      <c r="AY67" s="24"/>
+      <c r="AZ67" s="24"/>
+      <c r="BA67" s="24"/>
+      <c r="BB67" s="24"/>
+      <c r="BC67" s="24"/>
+      <c r="BD67" s="24"/>
+      <c r="BE67" s="24"/>
+      <c r="BF67" s="24"/>
+      <c r="BG67" s="24"/>
+      <c r="BH67" s="24"/>
+      <c r="BI67" s="24"/>
+      <c r="BJ67" s="24"/>
+      <c r="BK67" s="24"/>
+      <c r="BL67" s="24"/>
+      <c r="BM67" s="24"/>
+      <c r="BN67" s="24"/>
+      <c r="BO67" s="24"/>
+      <c r="BP67" s="24"/>
+      <c r="BQ67" s="24"/>
+    </row>
+    <row r="68" spans="1:69" ht="15">
       <c r="B68" s="1" t="s">
         <v>25</v>
       </c>
@@ -4297,7 +4248,7 @@
       <c r="BP68" s="12"/>
       <c r="BQ68" s="12"/>
     </row>
-    <row r="69" spans="1:69">
+    <row r="69" spans="1:69" ht="15">
       <c r="B69" s="7" t="s">
         <v>26</v>
       </c>
@@ -4367,7 +4318,7 @@
       <c r="BP69" s="12"/>
       <c r="BQ69" s="12"/>
     </row>
-    <row r="70" spans="1:69">
+    <row r="70" spans="1:69" ht="15">
       <c r="B70" s="7" t="s">
         <v>27</v>
       </c>
@@ -4839,8 +4790,8 @@
       <c r="BP76" s="12"/>
       <c r="BQ76" s="12"/>
     </row>
-    <row r="77" spans="1:69" s="26" customFormat="1">
-      <c r="B77" s="26" t="s">
+    <row r="77" spans="1:69" s="25" customFormat="1">
+      <c r="B77" s="25" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5973,78 +5924,22 @@
       <c r="BP93" s="12"/>
       <c r="BQ93" s="12"/>
     </row>
-    <row r="94" spans="2:69">
-      <c r="B94" t="s">
+    <row r="94" spans="2:69" s="31" customFormat="1">
+      <c r="B94" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="12"/>
-      <c r="O94" s="12"/>
-      <c r="P94" s="12"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="12"/>
-      <c r="S94" s="12"/>
-      <c r="T94" s="12"/>
-      <c r="U94" s="12"/>
-      <c r="V94" s="12"/>
-      <c r="W94" s="12"/>
-      <c r="X94" s="12"/>
-      <c r="Y94" s="12"/>
-      <c r="Z94" s="12"/>
-      <c r="AA94" s="12"/>
-      <c r="AB94" s="12"/>
-      <c r="AC94" s="12"/>
-      <c r="AD94" s="12"/>
-      <c r="AE94" s="12"/>
-      <c r="AF94" s="12"/>
-      <c r="AG94" s="12"/>
-      <c r="AH94" s="12"/>
-      <c r="AI94" s="12"/>
-      <c r="AJ94" s="12"/>
-      <c r="AK94" s="12"/>
-      <c r="AL94" s="12"/>
-      <c r="AM94" s="12"/>
-      <c r="AN94" s="12"/>
-      <c r="AO94" s="12"/>
-      <c r="AP94" s="12"/>
-      <c r="AQ94" s="12"/>
-      <c r="AR94" s="12"/>
-      <c r="AS94" s="12"/>
-      <c r="AT94" s="12"/>
-      <c r="AU94" s="12"/>
-      <c r="AV94" s="12"/>
-      <c r="AW94" s="12"/>
-      <c r="AX94" s="12"/>
-      <c r="AY94" s="12"/>
-      <c r="AZ94" s="12"/>
-      <c r="BA94" s="12"/>
-      <c r="BB94" s="12"/>
-      <c r="BC94" s="12"/>
-      <c r="BD94" s="12"/>
-      <c r="BE94" s="12"/>
-      <c r="BF94" s="12"/>
-      <c r="BG94" s="12"/>
-      <c r="BH94" s="12"/>
-      <c r="BI94" s="12"/>
-      <c r="BJ94" s="12"/>
-      <c r="BK94" s="12"/>
-      <c r="BL94" s="12"/>
-      <c r="BM94" s="12"/>
-      <c r="BN94" s="12"/>
-      <c r="BO94" s="12"/>
-      <c r="BP94" s="12"/>
-      <c r="BQ94" s="12"/>
+      <c r="D94" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E94" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F94" s="31" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="95" spans="2:69">
       <c r="E95" s="12"/>
@@ -6390,6 +6285,11 @@
         <v>52</v>
       </c>
     </row>
+    <row r="112" spans="2:69">
+      <c r="B112" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="http://localhost/snorg/query.php?action=GetFriends&amp;owner=0"/>
@@ -6407,7 +6307,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6419,7 +6319,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
